--- a/Java/stats.xlsx
+++ b/Java/stats.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="221">
   <si>
     <t>Nimi</t>
   </si>
@@ -1017,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FN120"/>
+  <dimension ref="A1:FN121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="FI2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="FJ2">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="FI3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="FJ3">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="FI7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="FJ7">
         <v>0</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="FH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FJ8">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="FH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FJ9">
         <v>0</v>
@@ -7658,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="FH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FJ13">
         <v>0</v>
@@ -10218,10 +10218,10 @@
         <v>0</v>
       </c>
       <c r="FH18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ18">
         <v>0</v>
@@ -10730,10 +10730,10 @@
         <v>0</v>
       </c>
       <c r="FH19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ19">
         <v>0</v>
@@ -12778,10 +12778,10 @@
         <v>0</v>
       </c>
       <c r="FH23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ23">
         <v>0</v>
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="FH29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FI29">
         <v>0</v>
@@ -16362,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="FH30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FI30">
         <v>0</v>
@@ -18410,7 +18410,7 @@
         <v>0</v>
       </c>
       <c r="FH34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FI34">
         <v>0</v>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="FI35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ35">
         <v>0</v>
@@ -19437,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="FI36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ36">
         <v>0</v>
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="FI40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ40">
         <v>0</v>
@@ -33770,7 +33770,7 @@
         <v>0</v>
       </c>
       <c r="FH64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FI64">
         <v>0</v>
@@ -34282,7 +34282,7 @@
         <v>0</v>
       </c>
       <c r="FH65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FI65">
         <v>0</v>
@@ -35841,10 +35841,10 @@
     </row>
     <row r="69" spans="1:170">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -35985,13 +35985,13 @@
         <v>0</v>
       </c>
       <c r="AW69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX69">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AY69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AZ69">
         <v>0</v>
@@ -36051,10 +36051,10 @@
         <v>0</v>
       </c>
       <c r="BS69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU69">
         <v>0</v>
@@ -36066,7 +36066,7 @@
         <v>0</v>
       </c>
       <c r="BX69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY69">
         <v>0</v>
@@ -36330,7 +36330,7 @@
         <v>0</v>
       </c>
       <c r="FH69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FI69">
         <v>0</v>
@@ -36356,7 +36356,7 @@
         <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -36868,7 +36868,7 @@
         <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -37015,7 +37015,7 @@
         <v>29</v>
       </c>
       <c r="AY71">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ71">
         <v>0</v>
@@ -37380,7 +37380,7 @@
         <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -37521,13 +37521,13 @@
         <v>0</v>
       </c>
       <c r="AW72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX72">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AY72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ72">
         <v>0</v>
@@ -37587,10 +37587,10 @@
         <v>0</v>
       </c>
       <c r="BS72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU72">
         <v>0</v>
@@ -37602,7 +37602,7 @@
         <v>0</v>
       </c>
       <c r="BX72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY72">
         <v>0</v>
@@ -37889,10 +37889,10 @@
     </row>
     <row r="73" spans="1:170">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -38039,7 +38039,7 @@
         <v>0</v>
       </c>
       <c r="AY73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ73">
         <v>0</v>
@@ -38315,13 +38315,13 @@
         <v>0</v>
       </c>
       <c r="EM73">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="EN73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="EO73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EP73">
         <v>0</v>
@@ -38404,7 +38404,7 @@
         <v>190</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -38916,7 +38916,7 @@
         <v>190</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -39339,13 +39339,13 @@
         <v>0</v>
       </c>
       <c r="EM75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="EN75">
         <v>6</v>
       </c>
       <c r="EO75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EP75">
         <v>0</v>
@@ -39428,7 +39428,7 @@
         <v>190</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -39851,10 +39851,10 @@
         <v>0</v>
       </c>
       <c r="EM76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EN76">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="EO76">
         <v>0</v>
@@ -39940,7 +39940,7 @@
         <v>190</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -40363,13 +40363,13 @@
         <v>0</v>
       </c>
       <c r="EM77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="EN77">
         <v>0</v>
       </c>
       <c r="EO77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EP77">
         <v>0</v>
@@ -40449,10 +40449,10 @@
     </row>
     <row r="78" spans="1:170">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -40665,223 +40665,223 @@
         <v>0</v>
       </c>
       <c r="BU78">
+        <v>0</v>
+      </c>
+      <c r="BV78">
+        <v>0</v>
+      </c>
+      <c r="BW78">
+        <v>0</v>
+      </c>
+      <c r="BX78">
+        <v>0</v>
+      </c>
+      <c r="BY78">
+        <v>0</v>
+      </c>
+      <c r="BZ78">
+        <v>0</v>
+      </c>
+      <c r="CA78">
+        <v>0</v>
+      </c>
+      <c r="CB78">
+        <v>0</v>
+      </c>
+      <c r="CC78">
+        <v>0</v>
+      </c>
+      <c r="CD78">
+        <v>0</v>
+      </c>
+      <c r="CE78">
+        <v>0</v>
+      </c>
+      <c r="CF78">
+        <v>0</v>
+      </c>
+      <c r="CG78">
+        <v>0</v>
+      </c>
+      <c r="CH78">
+        <v>0</v>
+      </c>
+      <c r="CI78">
+        <v>0</v>
+      </c>
+      <c r="CJ78">
+        <v>0</v>
+      </c>
+      <c r="CK78">
+        <v>0</v>
+      </c>
+      <c r="CL78">
+        <v>0</v>
+      </c>
+      <c r="CM78">
+        <v>0</v>
+      </c>
+      <c r="CN78">
+        <v>0</v>
+      </c>
+      <c r="CO78">
+        <v>0</v>
+      </c>
+      <c r="CP78">
+        <v>0</v>
+      </c>
+      <c r="CQ78">
+        <v>0</v>
+      </c>
+      <c r="CR78">
+        <v>0</v>
+      </c>
+      <c r="CS78">
+        <v>0</v>
+      </c>
+      <c r="CT78">
+        <v>0</v>
+      </c>
+      <c r="CU78">
+        <v>0</v>
+      </c>
+      <c r="CV78">
+        <v>0</v>
+      </c>
+      <c r="CW78">
+        <v>0</v>
+      </c>
+      <c r="CX78">
+        <v>0</v>
+      </c>
+      <c r="CY78">
+        <v>0</v>
+      </c>
+      <c r="CZ78">
+        <v>0</v>
+      </c>
+      <c r="DA78">
+        <v>0</v>
+      </c>
+      <c r="DB78">
+        <v>0</v>
+      </c>
+      <c r="DC78">
+        <v>0</v>
+      </c>
+      <c r="DD78">
+        <v>0</v>
+      </c>
+      <c r="DE78">
+        <v>0</v>
+      </c>
+      <c r="DF78">
+        <v>0</v>
+      </c>
+      <c r="DG78">
+        <v>0</v>
+      </c>
+      <c r="DH78">
+        <v>0</v>
+      </c>
+      <c r="DI78">
+        <v>0</v>
+      </c>
+      <c r="DJ78">
+        <v>0</v>
+      </c>
+      <c r="DK78">
+        <v>0</v>
+      </c>
+      <c r="DL78">
+        <v>0</v>
+      </c>
+      <c r="DM78">
+        <v>0</v>
+      </c>
+      <c r="DN78">
+        <v>0</v>
+      </c>
+      <c r="DO78">
+        <v>0</v>
+      </c>
+      <c r="DP78">
+        <v>0</v>
+      </c>
+      <c r="DQ78">
+        <v>0</v>
+      </c>
+      <c r="DR78">
+        <v>0</v>
+      </c>
+      <c r="DS78">
+        <v>0</v>
+      </c>
+      <c r="DT78">
+        <v>0</v>
+      </c>
+      <c r="DU78">
+        <v>0</v>
+      </c>
+      <c r="DV78">
+        <v>0</v>
+      </c>
+      <c r="DW78">
+        <v>0</v>
+      </c>
+      <c r="DX78">
+        <v>0</v>
+      </c>
+      <c r="DY78">
+        <v>0</v>
+      </c>
+      <c r="DZ78">
+        <v>0</v>
+      </c>
+      <c r="EA78">
+        <v>0</v>
+      </c>
+      <c r="EB78">
+        <v>0</v>
+      </c>
+      <c r="EC78">
+        <v>0</v>
+      </c>
+      <c r="ED78">
+        <v>0</v>
+      </c>
+      <c r="EE78">
+        <v>0</v>
+      </c>
+      <c r="EF78">
+        <v>0</v>
+      </c>
+      <c r="EG78">
+        <v>0</v>
+      </c>
+      <c r="EH78">
+        <v>0</v>
+      </c>
+      <c r="EI78">
+        <v>0</v>
+      </c>
+      <c r="EJ78">
+        <v>0</v>
+      </c>
+      <c r="EK78">
+        <v>0</v>
+      </c>
+      <c r="EL78">
+        <v>0</v>
+      </c>
+      <c r="EM78">
+        <v>6</v>
+      </c>
+      <c r="EN78">
+        <v>0</v>
+      </c>
+      <c r="EO78">
         <v>3</v>
-      </c>
-      <c r="BV78">
-        <v>8</v>
-      </c>
-      <c r="BW78">
-        <v>0</v>
-      </c>
-      <c r="BX78">
-        <v>2</v>
-      </c>
-      <c r="BY78">
-        <v>0</v>
-      </c>
-      <c r="BZ78">
-        <v>0</v>
-      </c>
-      <c r="CA78">
-        <v>0</v>
-      </c>
-      <c r="CB78">
-        <v>0</v>
-      </c>
-      <c r="CC78">
-        <v>0</v>
-      </c>
-      <c r="CD78">
-        <v>0</v>
-      </c>
-      <c r="CE78">
-        <v>0</v>
-      </c>
-      <c r="CF78">
-        <v>0</v>
-      </c>
-      <c r="CG78">
-        <v>0</v>
-      </c>
-      <c r="CH78">
-        <v>0</v>
-      </c>
-      <c r="CI78">
-        <v>0</v>
-      </c>
-      <c r="CJ78">
-        <v>1</v>
-      </c>
-      <c r="CK78">
-        <v>0</v>
-      </c>
-      <c r="CL78">
-        <v>0</v>
-      </c>
-      <c r="CM78">
-        <v>0</v>
-      </c>
-      <c r="CN78">
-        <v>0</v>
-      </c>
-      <c r="CO78">
-        <v>0</v>
-      </c>
-      <c r="CP78">
-        <v>0</v>
-      </c>
-      <c r="CQ78">
-        <v>0</v>
-      </c>
-      <c r="CR78">
-        <v>0</v>
-      </c>
-      <c r="CS78">
-        <v>0</v>
-      </c>
-      <c r="CT78">
-        <v>0</v>
-      </c>
-      <c r="CU78">
-        <v>0</v>
-      </c>
-      <c r="CV78">
-        <v>0</v>
-      </c>
-      <c r="CW78">
-        <v>0</v>
-      </c>
-      <c r="CX78">
-        <v>0</v>
-      </c>
-      <c r="CY78">
-        <v>0</v>
-      </c>
-      <c r="CZ78">
-        <v>0</v>
-      </c>
-      <c r="DA78">
-        <v>0</v>
-      </c>
-      <c r="DB78">
-        <v>0</v>
-      </c>
-      <c r="DC78">
-        <v>0</v>
-      </c>
-      <c r="DD78">
-        <v>0</v>
-      </c>
-      <c r="DE78">
-        <v>0</v>
-      </c>
-      <c r="DF78">
-        <v>0</v>
-      </c>
-      <c r="DG78">
-        <v>0</v>
-      </c>
-      <c r="DH78">
-        <v>0</v>
-      </c>
-      <c r="DI78">
-        <v>0</v>
-      </c>
-      <c r="DJ78">
-        <v>0</v>
-      </c>
-      <c r="DK78">
-        <v>0</v>
-      </c>
-      <c r="DL78">
-        <v>0</v>
-      </c>
-      <c r="DM78">
-        <v>0</v>
-      </c>
-      <c r="DN78">
-        <v>0</v>
-      </c>
-      <c r="DO78">
-        <v>0</v>
-      </c>
-      <c r="DP78">
-        <v>0</v>
-      </c>
-      <c r="DQ78">
-        <v>0</v>
-      </c>
-      <c r="DR78">
-        <v>0</v>
-      </c>
-      <c r="DS78">
-        <v>0</v>
-      </c>
-      <c r="DT78">
-        <v>0</v>
-      </c>
-      <c r="DU78">
-        <v>0</v>
-      </c>
-      <c r="DV78">
-        <v>0</v>
-      </c>
-      <c r="DW78">
-        <v>0</v>
-      </c>
-      <c r="DX78">
-        <v>0</v>
-      </c>
-      <c r="DY78">
-        <v>0</v>
-      </c>
-      <c r="DZ78">
-        <v>0</v>
-      </c>
-      <c r="EA78">
-        <v>0</v>
-      </c>
-      <c r="EB78">
-        <v>1</v>
-      </c>
-      <c r="EC78">
-        <v>0</v>
-      </c>
-      <c r="ED78">
-        <v>0</v>
-      </c>
-      <c r="EE78">
-        <v>0</v>
-      </c>
-      <c r="EF78">
-        <v>0</v>
-      </c>
-      <c r="EG78">
-        <v>0</v>
-      </c>
-      <c r="EH78">
-        <v>0</v>
-      </c>
-      <c r="EI78">
-        <v>0</v>
-      </c>
-      <c r="EJ78">
-        <v>0</v>
-      </c>
-      <c r="EK78">
-        <v>0</v>
-      </c>
-      <c r="EL78">
-        <v>0</v>
-      </c>
-      <c r="EM78">
-        <v>0</v>
-      </c>
-      <c r="EN78">
-        <v>0</v>
-      </c>
-      <c r="EO78">
-        <v>0</v>
       </c>
       <c r="EP78">
         <v>0</v>
@@ -40964,7 +40964,7 @@
         <v>191</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -41476,7 +41476,7 @@
         <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -41692,13 +41692,13 @@
         <v>3</v>
       </c>
       <c r="BV80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BW80">
         <v>0</v>
       </c>
       <c r="BX80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY80">
         <v>0</v>
@@ -41734,7 +41734,7 @@
         <v>0</v>
       </c>
       <c r="CJ80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK80">
         <v>0</v>
@@ -41866,7 +41866,7 @@
         <v>0</v>
       </c>
       <c r="EB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC80">
         <v>0</v>
@@ -41988,7 +41988,7 @@
         <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -42201,16 +42201,16 @@
         <v>0</v>
       </c>
       <c r="BU81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV81">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BW81">
         <v>0</v>
       </c>
       <c r="BX81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY81">
         <v>0</v>
@@ -42246,7 +42246,7 @@
         <v>0</v>
       </c>
       <c r="CJ81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK81">
         <v>0</v>
@@ -42378,7 +42378,7 @@
         <v>0</v>
       </c>
       <c r="EB81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC81">
         <v>0</v>
@@ -42497,10 +42497,10 @@
     </row>
     <row r="82" spans="1:170">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -42644,10 +42644,10 @@
         <v>0</v>
       </c>
       <c r="AX82">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AY82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ82">
         <v>0</v>
@@ -42674,223 +42674,223 @@
         <v>0</v>
       </c>
       <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+      <c r="BQ82">
+        <v>0</v>
+      </c>
+      <c r="BR82">
+        <v>0</v>
+      </c>
+      <c r="BS82">
+        <v>0</v>
+      </c>
+      <c r="BT82">
+        <v>0</v>
+      </c>
+      <c r="BU82">
+        <v>0</v>
+      </c>
+      <c r="BV82">
+        <v>8</v>
+      </c>
+      <c r="BW82">
+        <v>0</v>
+      </c>
+      <c r="BX82">
+        <v>2</v>
+      </c>
+      <c r="BY82">
+        <v>0</v>
+      </c>
+      <c r="BZ82">
+        <v>0</v>
+      </c>
+      <c r="CA82">
+        <v>0</v>
+      </c>
+      <c r="CB82">
+        <v>0</v>
+      </c>
+      <c r="CC82">
+        <v>0</v>
+      </c>
+      <c r="CD82">
+        <v>0</v>
+      </c>
+      <c r="CE82">
+        <v>0</v>
+      </c>
+      <c r="CF82">
+        <v>0</v>
+      </c>
+      <c r="CG82">
+        <v>0</v>
+      </c>
+      <c r="CH82">
+        <v>0</v>
+      </c>
+      <c r="CI82">
+        <v>0</v>
+      </c>
+      <c r="CJ82">
         <v>1</v>
       </c>
-      <c r="BI82">
-        <v>0</v>
-      </c>
-      <c r="BJ82">
-        <v>0</v>
-      </c>
-      <c r="BK82">
-        <v>0</v>
-      </c>
-      <c r="BL82">
-        <v>0</v>
-      </c>
-      <c r="BM82">
-        <v>0</v>
-      </c>
-      <c r="BN82">
-        <v>0</v>
-      </c>
-      <c r="BO82">
-        <v>0</v>
-      </c>
-      <c r="BP82">
+      <c r="CK82">
+        <v>0</v>
+      </c>
+      <c r="CL82">
+        <v>0</v>
+      </c>
+      <c r="CM82">
+        <v>0</v>
+      </c>
+      <c r="CN82">
+        <v>0</v>
+      </c>
+      <c r="CO82">
+        <v>0</v>
+      </c>
+      <c r="CP82">
+        <v>0</v>
+      </c>
+      <c r="CQ82">
+        <v>0</v>
+      </c>
+      <c r="CR82">
+        <v>0</v>
+      </c>
+      <c r="CS82">
+        <v>0</v>
+      </c>
+      <c r="CT82">
+        <v>0</v>
+      </c>
+      <c r="CU82">
+        <v>0</v>
+      </c>
+      <c r="CV82">
+        <v>0</v>
+      </c>
+      <c r="CW82">
+        <v>0</v>
+      </c>
+      <c r="CX82">
+        <v>0</v>
+      </c>
+      <c r="CY82">
+        <v>0</v>
+      </c>
+      <c r="CZ82">
+        <v>0</v>
+      </c>
+      <c r="DA82">
+        <v>0</v>
+      </c>
+      <c r="DB82">
+        <v>0</v>
+      </c>
+      <c r="DC82">
+        <v>0</v>
+      </c>
+      <c r="DD82">
+        <v>0</v>
+      </c>
+      <c r="DE82">
+        <v>0</v>
+      </c>
+      <c r="DF82">
+        <v>0</v>
+      </c>
+      <c r="DG82">
+        <v>0</v>
+      </c>
+      <c r="DH82">
+        <v>0</v>
+      </c>
+      <c r="DI82">
+        <v>0</v>
+      </c>
+      <c r="DJ82">
+        <v>0</v>
+      </c>
+      <c r="DK82">
+        <v>0</v>
+      </c>
+      <c r="DL82">
+        <v>0</v>
+      </c>
+      <c r="DM82">
+        <v>0</v>
+      </c>
+      <c r="DN82">
+        <v>0</v>
+      </c>
+      <c r="DO82">
+        <v>0</v>
+      </c>
+      <c r="DP82">
+        <v>0</v>
+      </c>
+      <c r="DQ82">
+        <v>0</v>
+      </c>
+      <c r="DR82">
+        <v>0</v>
+      </c>
+      <c r="DS82">
+        <v>0</v>
+      </c>
+      <c r="DT82">
+        <v>0</v>
+      </c>
+      <c r="DU82">
+        <v>0</v>
+      </c>
+      <c r="DV82">
+        <v>0</v>
+      </c>
+      <c r="DW82">
+        <v>0</v>
+      </c>
+      <c r="DX82">
+        <v>0</v>
+      </c>
+      <c r="DY82">
+        <v>0</v>
+      </c>
+      <c r="DZ82">
+        <v>0</v>
+      </c>
+      <c r="EA82">
+        <v>0</v>
+      </c>
+      <c r="EB82">
         <v>1</v>
-      </c>
-      <c r="BQ82">
-        <v>0</v>
-      </c>
-      <c r="BR82">
-        <v>0</v>
-      </c>
-      <c r="BS82">
-        <v>0</v>
-      </c>
-      <c r="BT82">
-        <v>0</v>
-      </c>
-      <c r="BU82">
-        <v>0</v>
-      </c>
-      <c r="BV82">
-        <v>0</v>
-      </c>
-      <c r="BW82">
-        <v>0</v>
-      </c>
-      <c r="BX82">
-        <v>0</v>
-      </c>
-      <c r="BY82">
-        <v>0</v>
-      </c>
-      <c r="BZ82">
-        <v>0</v>
-      </c>
-      <c r="CA82">
-        <v>0</v>
-      </c>
-      <c r="CB82">
-        <v>0</v>
-      </c>
-      <c r="CC82">
-        <v>0</v>
-      </c>
-      <c r="CD82">
-        <v>0</v>
-      </c>
-      <c r="CE82">
-        <v>0</v>
-      </c>
-      <c r="CF82">
-        <v>0</v>
-      </c>
-      <c r="CG82">
-        <v>0</v>
-      </c>
-      <c r="CH82">
-        <v>0</v>
-      </c>
-      <c r="CI82">
-        <v>0</v>
-      </c>
-      <c r="CJ82">
-        <v>0</v>
-      </c>
-      <c r="CK82">
-        <v>0</v>
-      </c>
-      <c r="CL82">
-        <v>0</v>
-      </c>
-      <c r="CM82">
-        <v>0</v>
-      </c>
-      <c r="CN82">
-        <v>0</v>
-      </c>
-      <c r="CO82">
-        <v>0</v>
-      </c>
-      <c r="CP82">
-        <v>0</v>
-      </c>
-      <c r="CQ82">
-        <v>0</v>
-      </c>
-      <c r="CR82">
-        <v>0</v>
-      </c>
-      <c r="CS82">
-        <v>1</v>
-      </c>
-      <c r="CT82">
-        <v>0</v>
-      </c>
-      <c r="CU82">
-        <v>0</v>
-      </c>
-      <c r="CV82">
-        <v>0</v>
-      </c>
-      <c r="CW82">
-        <v>0</v>
-      </c>
-      <c r="CX82">
-        <v>0</v>
-      </c>
-      <c r="CY82">
-        <v>0</v>
-      </c>
-      <c r="CZ82">
-        <v>0</v>
-      </c>
-      <c r="DA82">
-        <v>0</v>
-      </c>
-      <c r="DB82">
-        <v>0</v>
-      </c>
-      <c r="DC82">
-        <v>0</v>
-      </c>
-      <c r="DD82">
-        <v>0</v>
-      </c>
-      <c r="DE82">
-        <v>0</v>
-      </c>
-      <c r="DF82">
-        <v>0</v>
-      </c>
-      <c r="DG82">
-        <v>0</v>
-      </c>
-      <c r="DH82">
-        <v>0</v>
-      </c>
-      <c r="DI82">
-        <v>0</v>
-      </c>
-      <c r="DJ82">
-        <v>0</v>
-      </c>
-      <c r="DK82">
-        <v>0</v>
-      </c>
-      <c r="DL82">
-        <v>0</v>
-      </c>
-      <c r="DM82">
-        <v>0</v>
-      </c>
-      <c r="DN82">
-        <v>0</v>
-      </c>
-      <c r="DO82">
-        <v>0</v>
-      </c>
-      <c r="DP82">
-        <v>0</v>
-      </c>
-      <c r="DQ82">
-        <v>0</v>
-      </c>
-      <c r="DR82">
-        <v>0</v>
-      </c>
-      <c r="DS82">
-        <v>0</v>
-      </c>
-      <c r="DT82">
-        <v>0</v>
-      </c>
-      <c r="DU82">
-        <v>0</v>
-      </c>
-      <c r="DV82">
-        <v>0</v>
-      </c>
-      <c r="DW82">
-        <v>0</v>
-      </c>
-      <c r="DX82">
-        <v>0</v>
-      </c>
-      <c r="DY82">
-        <v>0</v>
-      </c>
-      <c r="DZ82">
-        <v>0</v>
-      </c>
-      <c r="EA82">
-        <v>0</v>
-      </c>
-      <c r="EB82">
-        <v>0</v>
       </c>
       <c r="EC82">
         <v>0</v>
@@ -43012,7 +43012,7 @@
         <v>192</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -43524,7 +43524,7 @@
         <v>192</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -43668,10 +43668,10 @@
         <v>0</v>
       </c>
       <c r="AX84">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ84">
         <v>0</v>
@@ -43698,7 +43698,7 @@
         <v>0</v>
       </c>
       <c r="BH84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI84">
         <v>0</v>
@@ -43809,7 +43809,7 @@
         <v>0</v>
       </c>
       <c r="CS84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT84">
         <v>0</v>
@@ -44036,7 +44036,7 @@
         <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -44180,7 +44180,7 @@
         <v>0</v>
       </c>
       <c r="AX85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY85">
         <v>0</v>
@@ -44234,7 +44234,7 @@
         <v>0</v>
       </c>
       <c r="BP85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ85">
         <v>0</v>
@@ -44548,7 +44548,7 @@
         <v>192</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -44692,10 +44692,10 @@
         <v>0</v>
       </c>
       <c r="AX86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ86">
         <v>0</v>
@@ -44722,7 +44722,7 @@
         <v>0</v>
       </c>
       <c r="BH86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI86">
         <v>0</v>
@@ -45060,7 +45060,7 @@
         <v>192</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -45204,10 +45204,10 @@
         <v>0</v>
       </c>
       <c r="AX87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ87">
         <v>0</v>
@@ -45234,7 +45234,7 @@
         <v>0</v>
       </c>
       <c r="BH87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI87">
         <v>0</v>
@@ -45345,7 +45345,7 @@
         <v>0</v>
       </c>
       <c r="CS87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT87">
         <v>0</v>
@@ -45569,10 +45569,10 @@
     </row>
     <row r="88" spans="1:170">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -45710,154 +45710,154 @@
         <v>0</v>
       </c>
       <c r="AV88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW88">
+        <v>0</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>0</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+      <c r="BQ88">
+        <v>0</v>
+      </c>
+      <c r="BR88">
+        <v>0</v>
+      </c>
+      <c r="BS88">
+        <v>0</v>
+      </c>
+      <c r="BT88">
+        <v>0</v>
+      </c>
+      <c r="BU88">
+        <v>0</v>
+      </c>
+      <c r="BV88">
+        <v>0</v>
+      </c>
+      <c r="BW88">
+        <v>0</v>
+      </c>
+      <c r="BX88">
+        <v>0</v>
+      </c>
+      <c r="BY88">
+        <v>0</v>
+      </c>
+      <c r="BZ88">
+        <v>0</v>
+      </c>
+      <c r="CA88">
+        <v>0</v>
+      </c>
+      <c r="CB88">
+        <v>0</v>
+      </c>
+      <c r="CC88">
+        <v>0</v>
+      </c>
+      <c r="CD88">
+        <v>0</v>
+      </c>
+      <c r="CE88">
+        <v>0</v>
+      </c>
+      <c r="CF88">
+        <v>0</v>
+      </c>
+      <c r="CG88">
+        <v>0</v>
+      </c>
+      <c r="CH88">
+        <v>0</v>
+      </c>
+      <c r="CI88">
+        <v>0</v>
+      </c>
+      <c r="CJ88">
+        <v>0</v>
+      </c>
+      <c r="CK88">
+        <v>0</v>
+      </c>
+      <c r="CL88">
+        <v>0</v>
+      </c>
+      <c r="CM88">
+        <v>0</v>
+      </c>
+      <c r="CN88">
+        <v>0</v>
+      </c>
+      <c r="CO88">
+        <v>0</v>
+      </c>
+      <c r="CP88">
+        <v>0</v>
+      </c>
+      <c r="CQ88">
+        <v>0</v>
+      </c>
+      <c r="CR88">
+        <v>0</v>
+      </c>
+      <c r="CS88">
         <v>1</v>
-      </c>
-      <c r="AX88">
-        <v>1</v>
-      </c>
-      <c r="AY88">
-        <v>1</v>
-      </c>
-      <c r="AZ88">
-        <v>0</v>
-      </c>
-      <c r="BA88">
-        <v>0</v>
-      </c>
-      <c r="BB88">
-        <v>0</v>
-      </c>
-      <c r="BC88">
-        <v>0</v>
-      </c>
-      <c r="BD88">
-        <v>0</v>
-      </c>
-      <c r="BE88">
-        <v>0</v>
-      </c>
-      <c r="BF88">
-        <v>0</v>
-      </c>
-      <c r="BG88">
-        <v>0</v>
-      </c>
-      <c r="BH88">
-        <v>0</v>
-      </c>
-      <c r="BI88">
-        <v>0</v>
-      </c>
-      <c r="BJ88">
-        <v>0</v>
-      </c>
-      <c r="BK88">
-        <v>0</v>
-      </c>
-      <c r="BL88">
-        <v>0</v>
-      </c>
-      <c r="BM88">
-        <v>0</v>
-      </c>
-      <c r="BN88">
-        <v>0</v>
-      </c>
-      <c r="BO88">
-        <v>0</v>
-      </c>
-      <c r="BP88">
-        <v>0</v>
-      </c>
-      <c r="BQ88">
-        <v>0</v>
-      </c>
-      <c r="BR88">
-        <v>0</v>
-      </c>
-      <c r="BS88">
-        <v>0</v>
-      </c>
-      <c r="BT88">
-        <v>0</v>
-      </c>
-      <c r="BU88">
-        <v>0</v>
-      </c>
-      <c r="BV88">
-        <v>0</v>
-      </c>
-      <c r="BW88">
-        <v>0</v>
-      </c>
-      <c r="BX88">
-        <v>0</v>
-      </c>
-      <c r="BY88">
-        <v>0</v>
-      </c>
-      <c r="BZ88">
-        <v>0</v>
-      </c>
-      <c r="CA88">
-        <v>0</v>
-      </c>
-      <c r="CB88">
-        <v>0</v>
-      </c>
-      <c r="CC88">
-        <v>0</v>
-      </c>
-      <c r="CD88">
-        <v>0</v>
-      </c>
-      <c r="CE88">
-        <v>0</v>
-      </c>
-      <c r="CF88">
-        <v>0</v>
-      </c>
-      <c r="CG88">
-        <v>0</v>
-      </c>
-      <c r="CH88">
-        <v>0</v>
-      </c>
-      <c r="CI88">
-        <v>0</v>
-      </c>
-      <c r="CJ88">
-        <v>0</v>
-      </c>
-      <c r="CK88">
-        <v>0</v>
-      </c>
-      <c r="CL88">
-        <v>0</v>
-      </c>
-      <c r="CM88">
-        <v>0</v>
-      </c>
-      <c r="CN88">
-        <v>0</v>
-      </c>
-      <c r="CO88">
-        <v>0</v>
-      </c>
-      <c r="CP88">
-        <v>0</v>
-      </c>
-      <c r="CQ88">
-        <v>0</v>
-      </c>
-      <c r="CR88">
-        <v>0</v>
-      </c>
-      <c r="CS88">
-        <v>0</v>
       </c>
       <c r="CT88">
         <v>0</v>
@@ -46084,7 +46084,7 @@
         <v>193</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -46596,7 +46596,7 @@
         <v>193</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -46734,7 +46734,7 @@
         <v>0</v>
       </c>
       <c r="AV90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW90">
         <v>1</v>
@@ -46743,7 +46743,7 @@
         <v>1</v>
       </c>
       <c r="AY90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ90">
         <v>0</v>
@@ -47108,7 +47108,7 @@
         <v>193</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -47246,16 +47246,16 @@
         <v>0</v>
       </c>
       <c r="AV91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ91">
         <v>0</v>
@@ -47620,7 +47620,7 @@
         <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -47758,7 +47758,7 @@
         <v>0</v>
       </c>
       <c r="AV92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW92">
         <v>0</v>
@@ -47767,7 +47767,7 @@
         <v>0</v>
       </c>
       <c r="AY92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ92">
         <v>0</v>
@@ -48129,10 +48129,10 @@
     </row>
     <row r="93" spans="1:170">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -48270,10 +48270,10 @@
         <v>0</v>
       </c>
       <c r="AV93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX93">
         <v>0</v>
@@ -48644,7 +48644,7 @@
         <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -49156,7 +49156,7 @@
         <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -49665,10 +49665,10 @@
     </row>
     <row r="96" spans="1:170">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -49800,7 +49800,7 @@
         <v>0</v>
       </c>
       <c r="AT96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -49815,7 +49815,7 @@
         <v>0</v>
       </c>
       <c r="AY96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ96">
         <v>0</v>
@@ -50180,7 +50180,7 @@
         <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -50692,7 +50692,7 @@
         <v>195</v>
       </c>
       <c r="B98" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -50824,7 +50824,7 @@
         <v>0</v>
       </c>
       <c r="AT98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU98">
         <v>0</v>
@@ -50839,7 +50839,7 @@
         <v>0</v>
       </c>
       <c r="AY98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ98">
         <v>0</v>
@@ -51204,7 +51204,7 @@
         <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -51336,7 +51336,7 @@
         <v>0</v>
       </c>
       <c r="AT99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -51345,13 +51345,13 @@
         <v>0</v>
       </c>
       <c r="AW99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX99">
         <v>0</v>
       </c>
       <c r="AY99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ99">
         <v>0</v>
@@ -51716,7 +51716,7 @@
         <v>195</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -51848,22 +51848,22 @@
         <v>0</v>
       </c>
       <c r="AT100">
+        <v>0</v>
+      </c>
+      <c r="AU100">
+        <v>0</v>
+      </c>
+      <c r="AV100">
+        <v>0</v>
+      </c>
+      <c r="AW100">
+        <v>0</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
         <v>1</v>
-      </c>
-      <c r="AU100">
-        <v>0</v>
-      </c>
-      <c r="AV100">
-        <v>0</v>
-      </c>
-      <c r="AW100">
-        <v>0</v>
-      </c>
-      <c r="AX100">
-        <v>0</v>
-      </c>
-      <c r="AY100">
-        <v>0</v>
       </c>
       <c r="AZ100">
         <v>0</v>
@@ -52225,10 +52225,10 @@
     </row>
     <row r="101" spans="1:170">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -52360,7 +52360,7 @@
         <v>0</v>
       </c>
       <c r="AT101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>0</v>
@@ -52501,7 +52501,7 @@
         <v>0</v>
       </c>
       <c r="CO101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CP101">
         <v>0</v>
@@ -52740,7 +52740,7 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -53252,7 +53252,7 @@
         <v>196</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -53525,7 +53525,7 @@
         <v>0</v>
       </c>
       <c r="CO103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP103">
         <v>0</v>
@@ -53764,7 +53764,7 @@
         <v>196</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -54037,7 +54037,7 @@
         <v>0</v>
       </c>
       <c r="CO104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CP104">
         <v>0</v>
@@ -54273,10 +54273,10 @@
     </row>
     <row r="105" spans="1:170">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -54492,7 +54492,7 @@
         <v>0</v>
       </c>
       <c r="BV105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW105">
         <v>0</v>
@@ -54549,7 +54549,7 @@
         <v>0</v>
       </c>
       <c r="CO105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP105">
         <v>0</v>
@@ -54788,7 +54788,7 @@
         <v>197</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -55300,7 +55300,7 @@
         <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -55809,10 +55809,10 @@
     </row>
     <row r="108" spans="1:170">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -56013,23 +56013,23 @@
         <v>0</v>
       </c>
       <c r="BQ108">
+        <v>0</v>
+      </c>
+      <c r="BR108">
+        <v>0</v>
+      </c>
+      <c r="BS108">
+        <v>0</v>
+      </c>
+      <c r="BT108">
+        <v>0</v>
+      </c>
+      <c r="BU108">
+        <v>0</v>
+      </c>
+      <c r="BV108">
         <v>2</v>
       </c>
-      <c r="BR108">
-        <v>0</v>
-      </c>
-      <c r="BS108">
-        <v>0</v>
-      </c>
-      <c r="BT108">
-        <v>0</v>
-      </c>
-      <c r="BU108">
-        <v>0</v>
-      </c>
-      <c r="BV108">
-        <v>0</v>
-      </c>
       <c r="BW108">
         <v>0</v>
       </c>
@@ -56091,7 +56091,7 @@
         <v>0</v>
       </c>
       <c r="CQ108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR108">
         <v>0</v>
@@ -56324,7 +56324,7 @@
         <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -56836,7 +56836,7 @@
         <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -57037,7 +57037,7 @@
         <v>0</v>
       </c>
       <c r="BQ110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR110">
         <v>0</v>
@@ -57348,7 +57348,7 @@
         <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -57549,7 +57549,7 @@
         <v>0</v>
       </c>
       <c r="BQ111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR111">
         <v>0</v>
@@ -57627,7 +57627,7 @@
         <v>0</v>
       </c>
       <c r="CQ111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR111">
         <v>0</v>
@@ -57857,10 +57857,10 @@
     </row>
     <row r="112" spans="1:170">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -58034,7 +58034,7 @@
         <v>0</v>
       </c>
       <c r="BH112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI112">
         <v>0</v>
@@ -58061,7 +58061,7 @@
         <v>0</v>
       </c>
       <c r="BQ112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR112">
         <v>0</v>
@@ -58372,7 +58372,7 @@
         <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -58884,7 +58884,7 @@
         <v>199</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -59393,185 +59393,185 @@
     </row>
     <row r="115" spans="1:170">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
+      <c r="AS115">
+        <v>0</v>
+      </c>
+      <c r="AT115">
+        <v>0</v>
+      </c>
+      <c r="AU115">
+        <v>0</v>
+      </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
+      <c r="AW115">
+        <v>0</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>0</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
         <v>1</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <v>0</v>
-      </c>
-      <c r="U115">
-        <v>0</v>
-      </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>1</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
-        <v>0</v>
-      </c>
-      <c r="AB115">
-        <v>2</v>
-      </c>
-      <c r="AC115">
-        <v>14</v>
-      </c>
-      <c r="AD115">
-        <v>7</v>
-      </c>
-      <c r="AE115">
-        <v>0</v>
-      </c>
-      <c r="AF115">
-        <v>0</v>
-      </c>
-      <c r="AG115">
-        <v>0</v>
-      </c>
-      <c r="AH115">
-        <v>0</v>
-      </c>
-      <c r="AI115">
-        <v>0</v>
-      </c>
-      <c r="AJ115">
-        <v>5</v>
-      </c>
-      <c r="AK115">
-        <v>0</v>
-      </c>
-      <c r="AL115">
-        <v>17</v>
-      </c>
-      <c r="AM115">
-        <v>0</v>
-      </c>
-      <c r="AN115">
-        <v>3</v>
-      </c>
-      <c r="AO115">
-        <v>3</v>
-      </c>
-      <c r="AP115">
-        <v>79</v>
-      </c>
-      <c r="AQ115">
-        <v>21</v>
-      </c>
-      <c r="AR115">
-        <v>5</v>
-      </c>
-      <c r="AS115">
-        <v>16</v>
-      </c>
-      <c r="AT115">
-        <v>32</v>
-      </c>
-      <c r="AU115">
-        <v>11</v>
-      </c>
-      <c r="AV115">
-        <v>7</v>
-      </c>
-      <c r="AW115">
-        <v>31</v>
-      </c>
-      <c r="AX115">
-        <v>141</v>
-      </c>
-      <c r="AY115">
-        <v>90</v>
-      </c>
-      <c r="AZ115">
-        <v>0</v>
-      </c>
-      <c r="BA115">
-        <v>0</v>
-      </c>
-      <c r="BB115">
-        <v>0</v>
-      </c>
-      <c r="BC115">
-        <v>0</v>
-      </c>
-      <c r="BD115">
-        <v>0</v>
-      </c>
-      <c r="BE115">
-        <v>0</v>
-      </c>
-      <c r="BF115">
-        <v>0</v>
-      </c>
-      <c r="BG115">
-        <v>0</v>
-      </c>
-      <c r="BH115">
-        <v>2</v>
-      </c>
       <c r="BI115">
         <v>0</v>
       </c>
@@ -59582,43 +59582,43 @@
         <v>0</v>
       </c>
       <c r="BL115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN115">
         <v>0</v>
       </c>
       <c r="BO115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BQ115">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="BR115">
         <v>0</v>
       </c>
       <c r="BS115">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BT115">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BU115">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BV115">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="BW115">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BX115">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BY115">
         <v>0</v>
@@ -59651,16 +59651,16 @@
         <v>0</v>
       </c>
       <c r="CI115">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CJ115">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CK115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CL115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CM115">
         <v>0</v>
@@ -59669,22 +59669,22 @@
         <v>0</v>
       </c>
       <c r="CO115">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CP115">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CQ115">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="CR115">
         <v>0</v>
       </c>
       <c r="CS115">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="CT115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU115">
         <v>0</v>
@@ -59702,10 +59702,10 @@
         <v>0</v>
       </c>
       <c r="CZ115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DA115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB115">
         <v>0</v>
@@ -59714,7 +59714,7 @@
         <v>0</v>
       </c>
       <c r="DD115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DE115">
         <v>0</v>
@@ -59723,16 +59723,16 @@
         <v>0</v>
       </c>
       <c r="DG115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DH115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="DI115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DK115">
         <v>0</v>
@@ -59741,7 +59741,7 @@
         <v>0</v>
       </c>
       <c r="DM115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN115">
         <v>0</v>
@@ -59786,7 +59786,7 @@
         <v>0</v>
       </c>
       <c r="EB115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC115">
         <v>0</v>
@@ -59819,25 +59819,25 @@
         <v>0</v>
       </c>
       <c r="EM115">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="EN115">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="EO115">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="EP115">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="EQ115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ER115">
         <v>0</v>
       </c>
       <c r="ES115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET115">
         <v>0</v>
@@ -59861,7 +59861,7 @@
         <v>0</v>
       </c>
       <c r="FA115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB115">
         <v>0</v>
@@ -59908,7 +59908,7 @@
         <v>200</v>
       </c>
       <c r="B116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -60394,10 +60394,10 @@
         <v>0</v>
       </c>
       <c r="FH116">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="FI116">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="FJ116">
         <v>0</v>
@@ -60420,10 +60420,10 @@
         <v>200</v>
       </c>
       <c r="B117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -60489,7 +60489,7 @@
         <v>0</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z117">
         <v>0</v>
@@ -60498,118 +60498,118 @@
         <v>0</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC117">
+        <v>14</v>
+      </c>
+      <c r="AD117">
+        <v>7</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>5</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>17</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>3</v>
+      </c>
+      <c r="AO117">
+        <v>3</v>
+      </c>
+      <c r="AP117">
+        <v>79</v>
+      </c>
+      <c r="AQ117">
+        <v>21</v>
+      </c>
+      <c r="AR117">
+        <v>5</v>
+      </c>
+      <c r="AS117">
+        <v>16</v>
+      </c>
+      <c r="AT117">
+        <v>32</v>
+      </c>
+      <c r="AU117">
+        <v>11</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>31</v>
+      </c>
+      <c r="AX117">
+        <v>141</v>
+      </c>
+      <c r="AY117">
+        <v>90</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>0</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>2</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>2</v>
+      </c>
+      <c r="BM117">
         <v>1</v>
-      </c>
-      <c r="AD117">
-        <v>5</v>
-      </c>
-      <c r="AE117">
-        <v>0</v>
-      </c>
-      <c r="AF117">
-        <v>0</v>
-      </c>
-      <c r="AG117">
-        <v>0</v>
-      </c>
-      <c r="AH117">
-        <v>0</v>
-      </c>
-      <c r="AI117">
-        <v>0</v>
-      </c>
-      <c r="AJ117">
-        <v>1</v>
-      </c>
-      <c r="AK117">
-        <v>0</v>
-      </c>
-      <c r="AL117">
-        <v>0</v>
-      </c>
-      <c r="AM117">
-        <v>0</v>
-      </c>
-      <c r="AN117">
-        <v>0</v>
-      </c>
-      <c r="AO117">
-        <v>1</v>
-      </c>
-      <c r="AP117">
-        <v>73</v>
-      </c>
-      <c r="AQ117">
-        <v>16</v>
-      </c>
-      <c r="AR117">
-        <v>1</v>
-      </c>
-      <c r="AS117">
-        <v>0</v>
-      </c>
-      <c r="AT117">
-        <v>0</v>
-      </c>
-      <c r="AU117">
-        <v>6</v>
-      </c>
-      <c r="AV117">
-        <v>1</v>
-      </c>
-      <c r="AW117">
-        <v>0</v>
-      </c>
-      <c r="AX117">
-        <v>0</v>
-      </c>
-      <c r="AY117">
-        <v>0</v>
-      </c>
-      <c r="AZ117">
-        <v>0</v>
-      </c>
-      <c r="BA117">
-        <v>0</v>
-      </c>
-      <c r="BB117">
-        <v>0</v>
-      </c>
-      <c r="BC117">
-        <v>0</v>
-      </c>
-      <c r="BD117">
-        <v>0</v>
-      </c>
-      <c r="BE117">
-        <v>0</v>
-      </c>
-      <c r="BF117">
-        <v>0</v>
-      </c>
-      <c r="BG117">
-        <v>0</v>
-      </c>
-      <c r="BH117">
-        <v>0</v>
-      </c>
-      <c r="BI117">
-        <v>0</v>
-      </c>
-      <c r="BJ117">
-        <v>0</v>
-      </c>
-      <c r="BK117">
-        <v>0</v>
-      </c>
-      <c r="BL117">
-        <v>0</v>
-      </c>
-      <c r="BM117">
-        <v>0</v>
       </c>
       <c r="BN117">
         <v>0</v>
@@ -60621,28 +60621,28 @@
         <v>2</v>
       </c>
       <c r="BQ117">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="BR117">
         <v>0</v>
       </c>
       <c r="BS117">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BT117">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU117">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BV117">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BW117">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="BX117">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BY117">
         <v>0</v>
@@ -60678,38 +60678,38 @@
         <v>9</v>
       </c>
       <c r="CJ117">
+        <v>8</v>
+      </c>
+      <c r="CK117">
+        <v>6</v>
+      </c>
+      <c r="CL117">
+        <v>5</v>
+      </c>
+      <c r="CM117">
+        <v>0</v>
+      </c>
+      <c r="CN117">
+        <v>0</v>
+      </c>
+      <c r="CO117">
+        <v>17</v>
+      </c>
+      <c r="CP117">
+        <v>7</v>
+      </c>
+      <c r="CQ117">
+        <v>56</v>
+      </c>
+      <c r="CR117">
+        <v>0</v>
+      </c>
+      <c r="CS117">
+        <v>14</v>
+      </c>
+      <c r="CT117">
         <v>1</v>
       </c>
-      <c r="CK117">
-        <v>0</v>
-      </c>
-      <c r="CL117">
-        <v>0</v>
-      </c>
-      <c r="CM117">
-        <v>0</v>
-      </c>
-      <c r="CN117">
-        <v>0</v>
-      </c>
-      <c r="CO117">
-        <v>0</v>
-      </c>
-      <c r="CP117">
-        <v>3</v>
-      </c>
-      <c r="CQ117">
-        <v>20</v>
-      </c>
-      <c r="CR117">
-        <v>0</v>
-      </c>
-      <c r="CS117">
-        <v>0</v>
-      </c>
-      <c r="CT117">
-        <v>0</v>
-      </c>
       <c r="CU117">
         <v>0</v>
       </c>
@@ -60726,10 +60726,10 @@
         <v>0</v>
       </c>
       <c r="CZ117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DA117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB117">
         <v>0</v>
@@ -60738,7 +60738,7 @@
         <v>0</v>
       </c>
       <c r="DD117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DE117">
         <v>0</v>
@@ -60756,7 +60756,7 @@
         <v>4</v>
       </c>
       <c r="DJ117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DK117">
         <v>0</v>
@@ -60765,7 +60765,7 @@
         <v>0</v>
       </c>
       <c r="DM117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN117">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="EB117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EC117">
         <v>0</v>
@@ -60843,26 +60843,26 @@
         <v>0</v>
       </c>
       <c r="EM117">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="EN117">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="EO117">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="EP117">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="EQ117">
+        <v>2</v>
+      </c>
+      <c r="ER117">
+        <v>0</v>
+      </c>
+      <c r="ES117">
         <v>1</v>
       </c>
-      <c r="ER117">
-        <v>0</v>
-      </c>
-      <c r="ES117">
-        <v>0</v>
-      </c>
       <c r="ET117">
         <v>0</v>
       </c>
@@ -60885,7 +60885,7 @@
         <v>0</v>
       </c>
       <c r="FA117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB117">
         <v>0</v>
@@ -60906,10 +60906,10 @@
         <v>0</v>
       </c>
       <c r="FH117">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="FI117">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="FJ117">
         <v>0</v>
@@ -60932,154 +60932,154 @@
         <v>200</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
         <v>1</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-      <c r="T118">
-        <v>0</v>
-      </c>
-      <c r="U118">
-        <v>0</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
+      <c r="AD118">
+        <v>5</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
         <v>1</v>
       </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
-      <c r="AA118">
-        <v>0</v>
-      </c>
-      <c r="AB118">
-        <v>2</v>
-      </c>
-      <c r="AC118">
-        <v>13</v>
-      </c>
-      <c r="AD118">
-        <v>2</v>
-      </c>
-      <c r="AE118">
-        <v>0</v>
-      </c>
-      <c r="AF118">
-        <v>0</v>
-      </c>
-      <c r="AG118">
-        <v>0</v>
-      </c>
-      <c r="AH118">
-        <v>0</v>
-      </c>
-      <c r="AI118">
-        <v>0</v>
-      </c>
-      <c r="AJ118">
-        <v>4</v>
-      </c>
       <c r="AK118">
         <v>0</v>
       </c>
       <c r="AL118">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AM118">
         <v>0</v>
       </c>
       <c r="AN118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP118">
+        <v>73</v>
+      </c>
+      <c r="AQ118">
+        <v>16</v>
+      </c>
+      <c r="AR118">
+        <v>1</v>
+      </c>
+      <c r="AS118">
+        <v>0</v>
+      </c>
+      <c r="AT118">
+        <v>0</v>
+      </c>
+      <c r="AU118">
         <v>6</v>
-      </c>
-      <c r="AQ118">
-        <v>5</v>
-      </c>
-      <c r="AR118">
-        <v>4</v>
-      </c>
-      <c r="AS118">
-        <v>16</v>
-      </c>
-      <c r="AT118">
-        <v>22</v>
-      </c>
-      <c r="AU118">
-        <v>4</v>
       </c>
       <c r="AV118">
         <v>1</v>
       </c>
       <c r="AW118">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AX118">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AY118">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AZ118">
         <v>0</v>
@@ -61118,80 +61118,80 @@
         <v>0</v>
       </c>
       <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>1</v>
+      </c>
+      <c r="BP118">
         <v>2</v>
       </c>
-      <c r="BM118">
+      <c r="BQ118">
+        <v>6</v>
+      </c>
+      <c r="BR118">
+        <v>0</v>
+      </c>
+      <c r="BS118">
+        <v>0</v>
+      </c>
+      <c r="BT118">
+        <v>0</v>
+      </c>
+      <c r="BU118">
+        <v>0</v>
+      </c>
+      <c r="BV118">
+        <v>0</v>
+      </c>
+      <c r="BW118">
+        <v>0</v>
+      </c>
+      <c r="BX118">
+        <v>0</v>
+      </c>
+      <c r="BY118">
+        <v>0</v>
+      </c>
+      <c r="BZ118">
+        <v>0</v>
+      </c>
+      <c r="CA118">
+        <v>0</v>
+      </c>
+      <c r="CB118">
+        <v>0</v>
+      </c>
+      <c r="CC118">
+        <v>0</v>
+      </c>
+      <c r="CD118">
+        <v>0</v>
+      </c>
+      <c r="CE118">
+        <v>0</v>
+      </c>
+      <c r="CF118">
+        <v>0</v>
+      </c>
+      <c r="CG118">
+        <v>0</v>
+      </c>
+      <c r="CH118">
+        <v>0</v>
+      </c>
+      <c r="CI118">
+        <v>9</v>
+      </c>
+      <c r="CJ118">
         <v>1</v>
       </c>
-      <c r="BN118">
-        <v>0</v>
-      </c>
-      <c r="BO118">
-        <v>0</v>
-      </c>
-      <c r="BP118">
-        <v>0</v>
-      </c>
-      <c r="BQ118">
-        <v>0</v>
-      </c>
-      <c r="BR118">
-        <v>0</v>
-      </c>
-      <c r="BS118">
-        <v>18</v>
-      </c>
-      <c r="BT118">
-        <v>7</v>
-      </c>
-      <c r="BU118">
-        <v>32</v>
-      </c>
-      <c r="BV118">
-        <v>9</v>
-      </c>
-      <c r="BW118">
-        <v>0</v>
-      </c>
-      <c r="BX118">
-        <v>1</v>
-      </c>
-      <c r="BY118">
-        <v>0</v>
-      </c>
-      <c r="BZ118">
-        <v>0</v>
-      </c>
-      <c r="CA118">
-        <v>0</v>
-      </c>
-      <c r="CB118">
-        <v>0</v>
-      </c>
-      <c r="CC118">
-        <v>0</v>
-      </c>
-      <c r="CD118">
-        <v>0</v>
-      </c>
-      <c r="CE118">
-        <v>0</v>
-      </c>
-      <c r="CF118">
-        <v>0</v>
-      </c>
-      <c r="CG118">
-        <v>0</v>
-      </c>
-      <c r="CH118">
-        <v>0</v>
-      </c>
-      <c r="CI118">
-        <v>0</v>
-      </c>
-      <c r="CJ118">
-        <v>0</v>
-      </c>
       <c r="CK118">
         <v>0</v>
       </c>
@@ -61208,10 +61208,10 @@
         <v>0</v>
       </c>
       <c r="CP118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CQ118">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CR118">
         <v>0</v>
@@ -61259,16 +61259,16 @@
         <v>0</v>
       </c>
       <c r="DG118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DH118">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DI118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DJ118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DK118">
         <v>0</v>
@@ -61277,7 +61277,7 @@
         <v>0</v>
       </c>
       <c r="DM118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN118">
         <v>0</v>
@@ -61355,16 +61355,16 @@
         <v>0</v>
       </c>
       <c r="EM118">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="EN118">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="EO118">
         <v>0</v>
       </c>
       <c r="EP118">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="EQ118">
         <v>1</v>
@@ -61373,7 +61373,7 @@
         <v>0</v>
       </c>
       <c r="ES118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET118">
         <v>0</v>
@@ -61397,7 +61397,7 @@
         <v>0</v>
       </c>
       <c r="FA118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB118">
         <v>0</v>
@@ -61444,10 +61444,10 @@
         <v>200</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -61513,7 +61513,7 @@
         <v>0</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z119">
         <v>0</v>
@@ -61522,13 +61522,13 @@
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC119">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE119">
         <v>0</v>
@@ -61546,251 +61546,251 @@
         <v>0</v>
       </c>
       <c r="AJ119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK119">
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AM119">
         <v>0</v>
       </c>
       <c r="AN119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP119">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS119">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT119">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW119">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX119">
+        <v>136</v>
+      </c>
+      <c r="AY119">
+        <v>19</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>2</v>
+      </c>
+      <c r="BM119">
+        <v>1</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+      <c r="BQ119">
+        <v>0</v>
+      </c>
+      <c r="BR119">
+        <v>0</v>
+      </c>
+      <c r="BS119">
+        <v>18</v>
+      </c>
+      <c r="BT119">
+        <v>7</v>
+      </c>
+      <c r="BU119">
+        <v>32</v>
+      </c>
+      <c r="BV119">
+        <v>9</v>
+      </c>
+      <c r="BW119">
+        <v>0</v>
+      </c>
+      <c r="BX119">
+        <v>1</v>
+      </c>
+      <c r="BY119">
+        <v>0</v>
+      </c>
+      <c r="BZ119">
+        <v>0</v>
+      </c>
+      <c r="CA119">
+        <v>0</v>
+      </c>
+      <c r="CB119">
+        <v>0</v>
+      </c>
+      <c r="CC119">
+        <v>0</v>
+      </c>
+      <c r="CD119">
+        <v>0</v>
+      </c>
+      <c r="CE119">
+        <v>0</v>
+      </c>
+      <c r="CF119">
+        <v>0</v>
+      </c>
+      <c r="CG119">
+        <v>0</v>
+      </c>
+      <c r="CH119">
+        <v>0</v>
+      </c>
+      <c r="CI119">
+        <v>0</v>
+      </c>
+      <c r="CJ119">
+        <v>0</v>
+      </c>
+      <c r="CK119">
+        <v>0</v>
+      </c>
+      <c r="CL119">
+        <v>0</v>
+      </c>
+      <c r="CM119">
+        <v>0</v>
+      </c>
+      <c r="CN119">
+        <v>0</v>
+      </c>
+      <c r="CO119">
+        <v>0</v>
+      </c>
+      <c r="CP119">
+        <v>0</v>
+      </c>
+      <c r="CQ119">
+        <v>0</v>
+      </c>
+      <c r="CR119">
+        <v>0</v>
+      </c>
+      <c r="CS119">
+        <v>0</v>
+      </c>
+      <c r="CT119">
+        <v>0</v>
+      </c>
+      <c r="CU119">
+        <v>0</v>
+      </c>
+      <c r="CV119">
+        <v>0</v>
+      </c>
+      <c r="CW119">
+        <v>0</v>
+      </c>
+      <c r="CX119">
+        <v>0</v>
+      </c>
+      <c r="CY119">
+        <v>0</v>
+      </c>
+      <c r="CZ119">
+        <v>0</v>
+      </c>
+      <c r="DA119">
+        <v>0</v>
+      </c>
+      <c r="DB119">
+        <v>0</v>
+      </c>
+      <c r="DC119">
+        <v>0</v>
+      </c>
+      <c r="DD119">
+        <v>0</v>
+      </c>
+      <c r="DE119">
+        <v>0</v>
+      </c>
+      <c r="DF119">
+        <v>0</v>
+      </c>
+      <c r="DG119">
+        <v>0</v>
+      </c>
+      <c r="DH119">
+        <v>0</v>
+      </c>
+      <c r="DI119">
+        <v>0</v>
+      </c>
+      <c r="DJ119">
         <v>5</v>
       </c>
-      <c r="AY119">
-        <v>71</v>
-      </c>
-      <c r="AZ119">
-        <v>0</v>
-      </c>
-      <c r="BA119">
-        <v>0</v>
-      </c>
-      <c r="BB119">
-        <v>0</v>
-      </c>
-      <c r="BC119">
-        <v>0</v>
-      </c>
-      <c r="BD119">
-        <v>0</v>
-      </c>
-      <c r="BE119">
-        <v>0</v>
-      </c>
-      <c r="BF119">
-        <v>0</v>
-      </c>
-      <c r="BG119">
-        <v>0</v>
-      </c>
-      <c r="BH119">
-        <v>2</v>
-      </c>
-      <c r="BI119">
-        <v>0</v>
-      </c>
-      <c r="BJ119">
-        <v>0</v>
-      </c>
-      <c r="BK119">
-        <v>0</v>
-      </c>
-      <c r="BL119">
-        <v>0</v>
-      </c>
-      <c r="BM119">
-        <v>0</v>
-      </c>
-      <c r="BN119">
-        <v>0</v>
-      </c>
-      <c r="BO119">
-        <v>0</v>
-      </c>
-      <c r="BP119">
-        <v>0</v>
-      </c>
-      <c r="BQ119">
-        <v>0</v>
-      </c>
-      <c r="BR119">
-        <v>0</v>
-      </c>
-      <c r="BS119">
-        <v>0</v>
-      </c>
-      <c r="BT119">
-        <v>0</v>
-      </c>
-      <c r="BU119">
-        <v>0</v>
-      </c>
-      <c r="BV119">
-        <v>0</v>
-      </c>
-      <c r="BW119">
-        <v>0</v>
-      </c>
-      <c r="BX119">
-        <v>0</v>
-      </c>
-      <c r="BY119">
-        <v>0</v>
-      </c>
-      <c r="BZ119">
-        <v>0</v>
-      </c>
-      <c r="CA119">
-        <v>0</v>
-      </c>
-      <c r="CB119">
-        <v>0</v>
-      </c>
-      <c r="CC119">
-        <v>0</v>
-      </c>
-      <c r="CD119">
-        <v>0</v>
-      </c>
-      <c r="CE119">
-        <v>0</v>
-      </c>
-      <c r="CF119">
-        <v>0</v>
-      </c>
-      <c r="CG119">
-        <v>0</v>
-      </c>
-      <c r="CH119">
-        <v>0</v>
-      </c>
-      <c r="CI119">
-        <v>0</v>
-      </c>
-      <c r="CJ119">
-        <v>0</v>
-      </c>
-      <c r="CK119">
-        <v>0</v>
-      </c>
-      <c r="CL119">
-        <v>0</v>
-      </c>
-      <c r="CM119">
-        <v>0</v>
-      </c>
-      <c r="CN119">
-        <v>0</v>
-      </c>
-      <c r="CO119">
-        <v>7</v>
-      </c>
-      <c r="CP119">
-        <v>0</v>
-      </c>
-      <c r="CQ119">
+      <c r="DK119">
+        <v>0</v>
+      </c>
+      <c r="DL119">
+        <v>0</v>
+      </c>
+      <c r="DM119">
         <v>1</v>
       </c>
-      <c r="CR119">
-        <v>0</v>
-      </c>
-      <c r="CS119">
-        <v>0</v>
-      </c>
-      <c r="CT119">
-        <v>0</v>
-      </c>
-      <c r="CU119">
-        <v>0</v>
-      </c>
-      <c r="CV119">
-        <v>0</v>
-      </c>
-      <c r="CW119">
-        <v>0</v>
-      </c>
-      <c r="CX119">
-        <v>0</v>
-      </c>
-      <c r="CY119">
-        <v>0</v>
-      </c>
-      <c r="CZ119">
-        <v>0</v>
-      </c>
-      <c r="DA119">
-        <v>0</v>
-      </c>
-      <c r="DB119">
-        <v>0</v>
-      </c>
-      <c r="DC119">
-        <v>0</v>
-      </c>
-      <c r="DD119">
-        <v>0</v>
-      </c>
-      <c r="DE119">
-        <v>0</v>
-      </c>
-      <c r="DF119">
-        <v>0</v>
-      </c>
-      <c r="DG119">
-        <v>0</v>
-      </c>
-      <c r="DH119">
-        <v>0</v>
-      </c>
-      <c r="DI119">
-        <v>0</v>
-      </c>
-      <c r="DJ119">
-        <v>0</v>
-      </c>
-      <c r="DK119">
-        <v>0</v>
-      </c>
-      <c r="DL119">
-        <v>0</v>
-      </c>
-      <c r="DM119">
-        <v>0</v>
-      </c>
       <c r="DN119">
         <v>0</v>
       </c>
@@ -61867,25 +61867,25 @@
         <v>0</v>
       </c>
       <c r="EM119">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="EN119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EO119">
         <v>0</v>
       </c>
       <c r="EP119">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="EQ119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER119">
         <v>0</v>
       </c>
       <c r="ES119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET119">
         <v>0</v>
@@ -61909,7 +61909,7 @@
         <v>0</v>
       </c>
       <c r="FA119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB119">
         <v>0</v>
@@ -61956,510 +61956,1022 @@
         <v>200</v>
       </c>
       <c r="B120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>0</v>
+      </c>
+      <c r="AR120">
+        <v>0</v>
+      </c>
+      <c r="AS120">
+        <v>0</v>
+      </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
+      <c r="AU120">
+        <v>0</v>
+      </c>
+      <c r="AV120">
+        <v>0</v>
+      </c>
+      <c r="AW120">
+        <v>0</v>
+      </c>
+      <c r="AX120">
+        <v>5</v>
+      </c>
+      <c r="AY120">
+        <v>71</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>2</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>0</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
+        <v>0</v>
+      </c>
+      <c r="BQ120">
+        <v>0</v>
+      </c>
+      <c r="BR120">
+        <v>0</v>
+      </c>
+      <c r="BS120">
+        <v>0</v>
+      </c>
+      <c r="BT120">
+        <v>0</v>
+      </c>
+      <c r="BU120">
+        <v>0</v>
+      </c>
+      <c r="BV120">
+        <v>0</v>
+      </c>
+      <c r="BW120">
+        <v>0</v>
+      </c>
+      <c r="BX120">
+        <v>0</v>
+      </c>
+      <c r="BY120">
+        <v>0</v>
+      </c>
+      <c r="BZ120">
+        <v>0</v>
+      </c>
+      <c r="CA120">
+        <v>0</v>
+      </c>
+      <c r="CB120">
+        <v>0</v>
+      </c>
+      <c r="CC120">
+        <v>0</v>
+      </c>
+      <c r="CD120">
+        <v>0</v>
+      </c>
+      <c r="CE120">
+        <v>0</v>
+      </c>
+      <c r="CF120">
+        <v>0</v>
+      </c>
+      <c r="CG120">
+        <v>0</v>
+      </c>
+      <c r="CH120">
+        <v>0</v>
+      </c>
+      <c r="CI120">
+        <v>0</v>
+      </c>
+      <c r="CJ120">
+        <v>0</v>
+      </c>
+      <c r="CK120">
+        <v>0</v>
+      </c>
+      <c r="CL120">
+        <v>0</v>
+      </c>
+      <c r="CM120">
+        <v>0</v>
+      </c>
+      <c r="CN120">
+        <v>0</v>
+      </c>
+      <c r="CO120">
+        <v>7</v>
+      </c>
+      <c r="CP120">
+        <v>0</v>
+      </c>
+      <c r="CQ120">
+        <v>1</v>
+      </c>
+      <c r="CR120">
+        <v>0</v>
+      </c>
+      <c r="CS120">
+        <v>0</v>
+      </c>
+      <c r="CT120">
+        <v>0</v>
+      </c>
+      <c r="CU120">
+        <v>0</v>
+      </c>
+      <c r="CV120">
+        <v>0</v>
+      </c>
+      <c r="CW120">
+        <v>0</v>
+      </c>
+      <c r="CX120">
+        <v>0</v>
+      </c>
+      <c r="CY120">
+        <v>0</v>
+      </c>
+      <c r="CZ120">
+        <v>0</v>
+      </c>
+      <c r="DA120">
+        <v>0</v>
+      </c>
+      <c r="DB120">
+        <v>0</v>
+      </c>
+      <c r="DC120">
+        <v>0</v>
+      </c>
+      <c r="DD120">
+        <v>0</v>
+      </c>
+      <c r="DE120">
+        <v>0</v>
+      </c>
+      <c r="DF120">
+        <v>0</v>
+      </c>
+      <c r="DG120">
+        <v>0</v>
+      </c>
+      <c r="DH120">
+        <v>0</v>
+      </c>
+      <c r="DI120">
+        <v>0</v>
+      </c>
+      <c r="DJ120">
+        <v>0</v>
+      </c>
+      <c r="DK120">
+        <v>0</v>
+      </c>
+      <c r="DL120">
+        <v>0</v>
+      </c>
+      <c r="DM120">
+        <v>0</v>
+      </c>
+      <c r="DN120">
+        <v>0</v>
+      </c>
+      <c r="DO120">
+        <v>0</v>
+      </c>
+      <c r="DP120">
+        <v>0</v>
+      </c>
+      <c r="DQ120">
+        <v>0</v>
+      </c>
+      <c r="DR120">
+        <v>0</v>
+      </c>
+      <c r="DS120">
+        <v>0</v>
+      </c>
+      <c r="DT120">
+        <v>0</v>
+      </c>
+      <c r="DU120">
+        <v>0</v>
+      </c>
+      <c r="DV120">
+        <v>0</v>
+      </c>
+      <c r="DW120">
+        <v>0</v>
+      </c>
+      <c r="DX120">
+        <v>0</v>
+      </c>
+      <c r="DY120">
+        <v>0</v>
+      </c>
+      <c r="DZ120">
+        <v>0</v>
+      </c>
+      <c r="EA120">
+        <v>0</v>
+      </c>
+      <c r="EB120">
+        <v>0</v>
+      </c>
+      <c r="EC120">
+        <v>0</v>
+      </c>
+      <c r="ED120">
+        <v>0</v>
+      </c>
+      <c r="EE120">
+        <v>0</v>
+      </c>
+      <c r="EF120">
+        <v>0</v>
+      </c>
+      <c r="EG120">
+        <v>0</v>
+      </c>
+      <c r="EH120">
+        <v>0</v>
+      </c>
+      <c r="EI120">
+        <v>0</v>
+      </c>
+      <c r="EJ120">
+        <v>0</v>
+      </c>
+      <c r="EK120">
+        <v>0</v>
+      </c>
+      <c r="EL120">
+        <v>0</v>
+      </c>
+      <c r="EM120">
+        <v>0</v>
+      </c>
+      <c r="EN120">
+        <v>0</v>
+      </c>
+      <c r="EO120">
+        <v>0</v>
+      </c>
+      <c r="EP120">
+        <v>0</v>
+      </c>
+      <c r="EQ120">
+        <v>0</v>
+      </c>
+      <c r="ER120">
+        <v>0</v>
+      </c>
+      <c r="ES120">
+        <v>0</v>
+      </c>
+      <c r="ET120">
+        <v>0</v>
+      </c>
+      <c r="EU120">
+        <v>0</v>
+      </c>
+      <c r="EV120">
+        <v>0</v>
+      </c>
+      <c r="EW120">
+        <v>0</v>
+      </c>
+      <c r="EX120">
+        <v>0</v>
+      </c>
+      <c r="EY120">
+        <v>0</v>
+      </c>
+      <c r="EZ120">
+        <v>0</v>
+      </c>
+      <c r="FA120">
+        <v>0</v>
+      </c>
+      <c r="FB120">
+        <v>0</v>
+      </c>
+      <c r="FC120">
+        <v>0</v>
+      </c>
+      <c r="FD120">
+        <v>0</v>
+      </c>
+      <c r="FE120">
+        <v>0</v>
+      </c>
+      <c r="FF120">
+        <v>0</v>
+      </c>
+      <c r="FG120">
+        <v>0</v>
+      </c>
+      <c r="FH120">
+        <v>0</v>
+      </c>
+      <c r="FI120">
+        <v>0</v>
+      </c>
+      <c r="FJ120">
+        <v>0</v>
+      </c>
+      <c r="FK120">
+        <v>0</v>
+      </c>
+      <c r="FL120">
+        <v>0</v>
+      </c>
+      <c r="FM120">
+        <v>0</v>
+      </c>
+      <c r="FN120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:170">
+      <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>0</v>
-      </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-      <c r="T120">
-        <v>0</v>
-      </c>
-      <c r="U120">
-        <v>0</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-      <c r="X120">
-        <v>0</v>
-      </c>
-      <c r="Y120">
-        <v>0</v>
-      </c>
-      <c r="Z120">
-        <v>0</v>
-      </c>
-      <c r="AA120">
-        <v>0</v>
-      </c>
-      <c r="AB120">
-        <v>0</v>
-      </c>
-      <c r="AC120">
-        <v>0</v>
-      </c>
-      <c r="AD120">
-        <v>0</v>
-      </c>
-      <c r="AE120">
-        <v>0</v>
-      </c>
-      <c r="AF120">
-        <v>0</v>
-      </c>
-      <c r="AG120">
-        <v>0</v>
-      </c>
-      <c r="AH120">
-        <v>0</v>
-      </c>
-      <c r="AI120">
-        <v>0</v>
-      </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
-      <c r="AK120">
-        <v>0</v>
-      </c>
-      <c r="AL120">
-        <v>0</v>
-      </c>
-      <c r="AM120">
-        <v>0</v>
-      </c>
-      <c r="AN120">
-        <v>0</v>
-      </c>
-      <c r="AO120">
-        <v>0</v>
-      </c>
-      <c r="AP120">
-        <v>0</v>
-      </c>
-      <c r="AQ120">
-        <v>0</v>
-      </c>
-      <c r="AR120">
-        <v>0</v>
-      </c>
-      <c r="AS120">
-        <v>0</v>
-      </c>
-      <c r="AT120">
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>0</v>
+      </c>
+      <c r="AR121">
+        <v>0</v>
+      </c>
+      <c r="AS121">
+        <v>0</v>
+      </c>
+      <c r="AT121">
         <v>10</v>
       </c>
-      <c r="AU120">
+      <c r="AU121">
         <v>1</v>
       </c>
-      <c r="AV120">
+      <c r="AV121">
         <v>5</v>
       </c>
-      <c r="AW120">
-        <v>0</v>
-      </c>
-      <c r="AX120">
-        <v>0</v>
-      </c>
-      <c r="AY120">
-        <v>0</v>
-      </c>
-      <c r="AZ120">
-        <v>0</v>
-      </c>
-      <c r="BA120">
-        <v>0</v>
-      </c>
-      <c r="BB120">
-        <v>0</v>
-      </c>
-      <c r="BC120">
-        <v>0</v>
-      </c>
-      <c r="BD120">
-        <v>0</v>
-      </c>
-      <c r="BE120">
-        <v>0</v>
-      </c>
-      <c r="BF120">
-        <v>0</v>
-      </c>
-      <c r="BG120">
-        <v>0</v>
-      </c>
-      <c r="BH120">
-        <v>0</v>
-      </c>
-      <c r="BI120">
-        <v>0</v>
-      </c>
-      <c r="BJ120">
-        <v>0</v>
-      </c>
-      <c r="BK120">
-        <v>0</v>
-      </c>
-      <c r="BL120">
-        <v>0</v>
-      </c>
-      <c r="BM120">
-        <v>0</v>
-      </c>
-      <c r="BN120">
-        <v>0</v>
-      </c>
-      <c r="BO120">
-        <v>0</v>
-      </c>
-      <c r="BP120">
-        <v>0</v>
-      </c>
-      <c r="BQ120">
+      <c r="AW121">
+        <v>0</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>0</v>
+      </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
+        <v>0</v>
+      </c>
+      <c r="BQ121">
         <v>36</v>
       </c>
-      <c r="BR120">
-        <v>0</v>
-      </c>
-      <c r="BS120">
-        <v>0</v>
-      </c>
-      <c r="BT120">
-        <v>0</v>
-      </c>
-      <c r="BU120">
-        <v>0</v>
-      </c>
-      <c r="BV120">
+      <c r="BR121">
+        <v>0</v>
+      </c>
+      <c r="BS121">
+        <v>0</v>
+      </c>
+      <c r="BT121">
+        <v>0</v>
+      </c>
+      <c r="BU121">
+        <v>0</v>
+      </c>
+      <c r="BV121">
         <v>48</v>
       </c>
-      <c r="BW120">
+      <c r="BW121">
         <v>77</v>
       </c>
-      <c r="BX120">
+      <c r="BX121">
         <v>30</v>
       </c>
-      <c r="BY120">
-        <v>0</v>
-      </c>
-      <c r="BZ120">
-        <v>0</v>
-      </c>
-      <c r="CA120">
-        <v>0</v>
-      </c>
-      <c r="CB120">
-        <v>0</v>
-      </c>
-      <c r="CC120">
-        <v>0</v>
-      </c>
-      <c r="CD120">
-        <v>0</v>
-      </c>
-      <c r="CE120">
-        <v>0</v>
-      </c>
-      <c r="CF120">
-        <v>0</v>
-      </c>
-      <c r="CG120">
-        <v>0</v>
-      </c>
-      <c r="CH120">
-        <v>0</v>
-      </c>
-      <c r="CI120">
-        <v>0</v>
-      </c>
-      <c r="CJ120">
+      <c r="BY121">
+        <v>0</v>
+      </c>
+      <c r="BZ121">
+        <v>0</v>
+      </c>
+      <c r="CA121">
+        <v>0</v>
+      </c>
+      <c r="CB121">
+        <v>0</v>
+      </c>
+      <c r="CC121">
+        <v>0</v>
+      </c>
+      <c r="CD121">
+        <v>0</v>
+      </c>
+      <c r="CE121">
+        <v>0</v>
+      </c>
+      <c r="CF121">
+        <v>0</v>
+      </c>
+      <c r="CG121">
+        <v>0</v>
+      </c>
+      <c r="CH121">
+        <v>0</v>
+      </c>
+      <c r="CI121">
+        <v>0</v>
+      </c>
+      <c r="CJ121">
         <v>7</v>
       </c>
-      <c r="CK120">
+      <c r="CK121">
         <v>6</v>
       </c>
-      <c r="CL120">
+      <c r="CL121">
         <v>5</v>
       </c>
-      <c r="CM120">
-        <v>0</v>
-      </c>
-      <c r="CN120">
-        <v>0</v>
-      </c>
-      <c r="CO120">
+      <c r="CM121">
+        <v>0</v>
+      </c>
+      <c r="CN121">
+        <v>0</v>
+      </c>
+      <c r="CO121">
         <v>10</v>
       </c>
-      <c r="CP120">
+      <c r="CP121">
         <v>4</v>
       </c>
-      <c r="CQ120">
+      <c r="CQ121">
         <v>35</v>
       </c>
-      <c r="CR120">
-        <v>0</v>
-      </c>
-      <c r="CS120">
+      <c r="CR121">
+        <v>0</v>
+      </c>
+      <c r="CS121">
         <v>14</v>
       </c>
-      <c r="CT120">
+      <c r="CT121">
         <v>1</v>
       </c>
-      <c r="CU120">
-        <v>0</v>
-      </c>
-      <c r="CV120">
-        <v>0</v>
-      </c>
-      <c r="CW120">
-        <v>0</v>
-      </c>
-      <c r="CX120">
-        <v>0</v>
-      </c>
-      <c r="CY120">
-        <v>0</v>
-      </c>
-      <c r="CZ120">
+      <c r="CU121">
+        <v>0</v>
+      </c>
+      <c r="CV121">
+        <v>0</v>
+      </c>
+      <c r="CW121">
+        <v>0</v>
+      </c>
+      <c r="CX121">
+        <v>0</v>
+      </c>
+      <c r="CY121">
+        <v>0</v>
+      </c>
+      <c r="CZ121">
         <v>2</v>
       </c>
-      <c r="DA120">
+      <c r="DA121">
         <v>1</v>
       </c>
-      <c r="DB120">
-        <v>0</v>
-      </c>
-      <c r="DC120">
-        <v>0</v>
-      </c>
-      <c r="DD120">
+      <c r="DB121">
+        <v>0</v>
+      </c>
+      <c r="DC121">
+        <v>0</v>
+      </c>
+      <c r="DD121">
         <v>5</v>
       </c>
-      <c r="DE120">
-        <v>0</v>
-      </c>
-      <c r="DF120">
-        <v>0</v>
-      </c>
-      <c r="DG120">
-        <v>0</v>
-      </c>
-      <c r="DH120">
-        <v>0</v>
-      </c>
-      <c r="DI120">
-        <v>0</v>
-      </c>
-      <c r="DJ120">
-        <v>0</v>
-      </c>
-      <c r="DK120">
-        <v>0</v>
-      </c>
-      <c r="DL120">
-        <v>0</v>
-      </c>
-      <c r="DM120">
-        <v>0</v>
-      </c>
-      <c r="DN120">
-        <v>0</v>
-      </c>
-      <c r="DO120">
-        <v>0</v>
-      </c>
-      <c r="DP120">
-        <v>0</v>
-      </c>
-      <c r="DQ120">
-        <v>0</v>
-      </c>
-      <c r="DR120">
-        <v>0</v>
-      </c>
-      <c r="DS120">
-        <v>0</v>
-      </c>
-      <c r="DT120">
-        <v>0</v>
-      </c>
-      <c r="DU120">
-        <v>0</v>
-      </c>
-      <c r="DV120">
-        <v>0</v>
-      </c>
-      <c r="DW120">
-        <v>0</v>
-      </c>
-      <c r="DX120">
-        <v>0</v>
-      </c>
-      <c r="DY120">
-        <v>0</v>
-      </c>
-      <c r="DZ120">
-        <v>0</v>
-      </c>
-      <c r="EA120">
-        <v>0</v>
-      </c>
-      <c r="EB120">
+      <c r="DE121">
+        <v>0</v>
+      </c>
+      <c r="DF121">
+        <v>0</v>
+      </c>
+      <c r="DG121">
+        <v>0</v>
+      </c>
+      <c r="DH121">
+        <v>0</v>
+      </c>
+      <c r="DI121">
+        <v>0</v>
+      </c>
+      <c r="DJ121">
+        <v>0</v>
+      </c>
+      <c r="DK121">
+        <v>0</v>
+      </c>
+      <c r="DL121">
+        <v>0</v>
+      </c>
+      <c r="DM121">
+        <v>0</v>
+      </c>
+      <c r="DN121">
+        <v>0</v>
+      </c>
+      <c r="DO121">
+        <v>0</v>
+      </c>
+      <c r="DP121">
+        <v>0</v>
+      </c>
+      <c r="DQ121">
+        <v>0</v>
+      </c>
+      <c r="DR121">
+        <v>0</v>
+      </c>
+      <c r="DS121">
+        <v>0</v>
+      </c>
+      <c r="DT121">
+        <v>0</v>
+      </c>
+      <c r="DU121">
+        <v>0</v>
+      </c>
+      <c r="DV121">
+        <v>0</v>
+      </c>
+      <c r="DW121">
+        <v>0</v>
+      </c>
+      <c r="DX121">
+        <v>0</v>
+      </c>
+      <c r="DY121">
+        <v>0</v>
+      </c>
+      <c r="DZ121">
+        <v>0</v>
+      </c>
+      <c r="EA121">
+        <v>0</v>
+      </c>
+      <c r="EB121">
         <v>2</v>
       </c>
-      <c r="EC120">
-        <v>0</v>
-      </c>
-      <c r="ED120">
-        <v>0</v>
-      </c>
-      <c r="EE120">
-        <v>0</v>
-      </c>
-      <c r="EF120">
-        <v>0</v>
-      </c>
-      <c r="EG120">
-        <v>0</v>
-      </c>
-      <c r="EH120">
-        <v>0</v>
-      </c>
-      <c r="EI120">
-        <v>0</v>
-      </c>
-      <c r="EJ120">
-        <v>0</v>
-      </c>
-      <c r="EK120">
-        <v>0</v>
-      </c>
-      <c r="EL120">
-        <v>0</v>
-      </c>
-      <c r="EM120">
+      <c r="EC121">
+        <v>0</v>
+      </c>
+      <c r="ED121">
+        <v>0</v>
+      </c>
+      <c r="EE121">
+        <v>0</v>
+      </c>
+      <c r="EF121">
+        <v>0</v>
+      </c>
+      <c r="EG121">
+        <v>0</v>
+      </c>
+      <c r="EH121">
+        <v>0</v>
+      </c>
+      <c r="EI121">
+        <v>0</v>
+      </c>
+      <c r="EJ121">
+        <v>0</v>
+      </c>
+      <c r="EK121">
+        <v>0</v>
+      </c>
+      <c r="EL121">
+        <v>0</v>
+      </c>
+      <c r="EM121">
         <v>9</v>
       </c>
-      <c r="EN120">
-        <v>0</v>
-      </c>
-      <c r="EO120">
+      <c r="EN121">
+        <v>0</v>
+      </c>
+      <c r="EO121">
         <v>9</v>
       </c>
-      <c r="EP120">
+      <c r="EP121">
         <v>1</v>
       </c>
-      <c r="EQ120">
-        <v>0</v>
-      </c>
-      <c r="ER120">
-        <v>0</v>
-      </c>
-      <c r="ES120">
-        <v>0</v>
-      </c>
-      <c r="ET120">
-        <v>0</v>
-      </c>
-      <c r="EU120">
-        <v>0</v>
-      </c>
-      <c r="EV120">
-        <v>0</v>
-      </c>
-      <c r="EW120">
-        <v>0</v>
-      </c>
-      <c r="EX120">
-        <v>0</v>
-      </c>
-      <c r="EY120">
-        <v>0</v>
-      </c>
-      <c r="EZ120">
-        <v>0</v>
-      </c>
-      <c r="FA120">
-        <v>0</v>
-      </c>
-      <c r="FB120">
-        <v>0</v>
-      </c>
-      <c r="FC120">
-        <v>0</v>
-      </c>
-      <c r="FD120">
-        <v>0</v>
-      </c>
-      <c r="FE120">
-        <v>0</v>
-      </c>
-      <c r="FF120">
-        <v>0</v>
-      </c>
-      <c r="FG120">
-        <v>0</v>
-      </c>
-      <c r="FH120">
-        <v>0</v>
-      </c>
-      <c r="FI120">
-        <v>0</v>
-      </c>
-      <c r="FJ120">
-        <v>0</v>
-      </c>
-      <c r="FK120">
-        <v>0</v>
-      </c>
-      <c r="FL120">
-        <v>0</v>
-      </c>
-      <c r="FM120">
-        <v>0</v>
-      </c>
-      <c r="FN120">
+      <c r="EQ121">
+        <v>0</v>
+      </c>
+      <c r="ER121">
+        <v>0</v>
+      </c>
+      <c r="ES121">
+        <v>0</v>
+      </c>
+      <c r="ET121">
+        <v>0</v>
+      </c>
+      <c r="EU121">
+        <v>0</v>
+      </c>
+      <c r="EV121">
+        <v>0</v>
+      </c>
+      <c r="EW121">
+        <v>0</v>
+      </c>
+      <c r="EX121">
+        <v>0</v>
+      </c>
+      <c r="EY121">
+        <v>0</v>
+      </c>
+      <c r="EZ121">
+        <v>0</v>
+      </c>
+      <c r="FA121">
+        <v>0</v>
+      </c>
+      <c r="FB121">
+        <v>0</v>
+      </c>
+      <c r="FC121">
+        <v>0</v>
+      </c>
+      <c r="FD121">
+        <v>0</v>
+      </c>
+      <c r="FE121">
+        <v>0</v>
+      </c>
+      <c r="FF121">
+        <v>0</v>
+      </c>
+      <c r="FG121">
+        <v>0</v>
+      </c>
+      <c r="FH121">
+        <v>23</v>
+      </c>
+      <c r="FI121">
+        <v>17</v>
+      </c>
+      <c r="FJ121">
+        <v>0</v>
+      </c>
+      <c r="FK121">
+        <v>0</v>
+      </c>
+      <c r="FL121">
+        <v>0</v>
+      </c>
+      <c r="FM121">
+        <v>0</v>
+      </c>
+      <c r="FN121">
         <v>0</v>
       </c>
     </row>
@@ -62540,10 +63052,10 @@
         <v>170</v>
       </c>
       <c r="B2">
-        <v>6154</v>
+        <v>6433</v>
       </c>
       <c r="C2">
-        <v>6154</v>
+        <v>6433</v>
       </c>
       <c r="D2">
         <v>480</v>
@@ -62558,7 +63070,7 @@
         <v>572</v>
       </c>
       <c r="H2">
-        <v>1270</v>
+        <v>1549</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -62569,10 +63081,10 @@
         <v>177</v>
       </c>
       <c r="B3">
-        <v>5226</v>
+        <v>5513</v>
       </c>
       <c r="C3">
-        <v>5226</v>
+        <v>5513</v>
       </c>
       <c r="D3">
         <v>2173</v>
@@ -62587,7 +63099,7 @@
         <v>110</v>
       </c>
       <c r="H3">
-        <v>1014</v>
+        <v>1301</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -62627,10 +63139,10 @@
         <v>179</v>
       </c>
       <c r="B5">
-        <v>2465</v>
+        <v>2760</v>
       </c>
       <c r="C5">
-        <v>2465</v>
+        <v>2760</v>
       </c>
       <c r="D5">
         <v>1429</v>
@@ -62645,7 +63157,7 @@
         <v>136</v>
       </c>
       <c r="H5">
-        <v>456</v>
+        <v>751</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -62685,10 +63197,10 @@
         <v>181</v>
       </c>
       <c r="B7">
-        <v>3612</v>
+        <v>3981</v>
       </c>
       <c r="C7">
-        <v>3612</v>
+        <v>3981</v>
       </c>
       <c r="D7">
         <v>1225</v>
@@ -62703,7 +63215,7 @@
         <v>271</v>
       </c>
       <c r="H7">
-        <v>667</v>
+        <v>1036</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -62714,10 +63226,10 @@
         <v>182</v>
       </c>
       <c r="B8">
-        <v>5416</v>
+        <v>5495</v>
       </c>
       <c r="C8">
-        <v>5416</v>
+        <v>5495</v>
       </c>
       <c r="D8">
         <v>456</v>
@@ -62732,7 +63244,7 @@
         <v>389</v>
       </c>
       <c r="H8">
-        <v>2893</v>
+        <v>2972</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -62888,10 +63400,10 @@
         <v>188</v>
       </c>
       <c r="B14">
-        <v>701</v>
+        <v>850</v>
       </c>
       <c r="C14">
-        <v>701</v>
+        <v>850</v>
       </c>
       <c r="D14">
         <v>119</v>
@@ -62906,7 +63418,7 @@
         <v>283</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -63236,10 +63748,10 @@
         <v>200</v>
       </c>
       <c r="B26">
-        <v>31681</v>
+        <v>33139</v>
       </c>
       <c r="C26">
-        <v>31681</v>
+        <v>33139</v>
       </c>
       <c r="D26">
         <v>6528</v>
@@ -63254,7 +63766,7 @@
         <v>2326</v>
       </c>
       <c r="H26">
-        <v>9300</v>
+        <v>10758</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -63307,10 +63819,10 @@
         <v>170</v>
       </c>
       <c r="B2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D2">
         <v>16</v>
@@ -63325,7 +63837,7 @@
         <v>27</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -63336,10 +63848,10 @@
         <v>177</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>44</v>
@@ -63354,7 +63866,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -63394,10 +63906,10 @@
         <v>179</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>42</v>
@@ -63412,7 +63924,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -63452,10 +63964,10 @@
         <v>181</v>
       </c>
       <c r="B7">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>34</v>
@@ -63470,7 +63982,7 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -63481,10 +63993,10 @@
         <v>182</v>
       </c>
       <c r="B8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -63499,7 +64011,7 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -63655,10 +64167,10 @@
         <v>188</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -63673,7 +64185,7 @@
         <v>14</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -64003,10 +64515,10 @@
         <v>200</v>
       </c>
       <c r="B26">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="C26">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="D26">
         <v>190</v>
@@ -64021,7 +64533,7 @@
         <v>86</v>
       </c>
       <c r="H26">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -64074,10 +64586,10 @@
         <v>170</v>
       </c>
       <c r="B2">
-        <v>25.857</v>
+        <v>26.045</v>
       </c>
       <c r="C2">
-        <v>25.857</v>
+        <v>26.045</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -64092,7 +64604,7 @@
         <v>21.185</v>
       </c>
       <c r="H2">
-        <v>25.4</v>
+        <v>26.254</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -64103,10 +64615,10 @@
         <v>177</v>
       </c>
       <c r="B3">
-        <v>46.248</v>
+        <v>46.72</v>
       </c>
       <c r="C3">
-        <v>46.248</v>
+        <v>46.72</v>
       </c>
       <c r="D3">
         <v>49.386</v>
@@ -64121,7 +64633,7 @@
         <v>55</v>
       </c>
       <c r="H3">
-        <v>33.8</v>
+        <v>37.171</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -64161,10 +64673,10 @@
         <v>179</v>
       </c>
       <c r="B5">
-        <v>33.767</v>
+        <v>33.659</v>
       </c>
       <c r="C5">
-        <v>33.767</v>
+        <v>33.659</v>
       </c>
       <c r="D5">
         <v>34.024</v>
@@ -64179,7 +64691,7 @@
         <v>34</v>
       </c>
       <c r="H5">
-        <v>26.824</v>
+        <v>28.885</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -64219,10 +64731,10 @@
         <v>181</v>
       </c>
       <c r="B7">
-        <v>36.857</v>
+        <v>36.861</v>
       </c>
       <c r="C7">
-        <v>36.857</v>
+        <v>36.861</v>
       </c>
       <c r="D7">
         <v>36.029</v>
@@ -64237,7 +64749,7 @@
         <v>33.875</v>
       </c>
       <c r="H7">
-        <v>39.235</v>
+        <v>38.37</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -64248,10 +64760,10 @@
         <v>182</v>
       </c>
       <c r="B8">
-        <v>36.107</v>
+        <v>35.915</v>
       </c>
       <c r="C8">
-        <v>36.107</v>
+        <v>35.915</v>
       </c>
       <c r="D8">
         <v>45.6</v>
@@ -64266,7 +64778,7 @@
         <v>38.9</v>
       </c>
       <c r="H8">
-        <v>31.791</v>
+        <v>31.617</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -64422,10 +64934,10 @@
         <v>188</v>
       </c>
       <c r="B14">
-        <v>25.036</v>
+        <v>26.562</v>
       </c>
       <c r="C14">
-        <v>25.036</v>
+        <v>26.562</v>
       </c>
       <c r="D14">
         <v>23.8</v>
@@ -64440,7 +64952,7 @@
         <v>20.214</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>37.25</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -64770,10 +65282,10 @@
         <v>200</v>
       </c>
       <c r="B26">
-        <v>31.84</v>
+        <v>32.018</v>
       </c>
       <c r="C26">
-        <v>31.84</v>
+        <v>32.018</v>
       </c>
       <c r="D26">
         <v>34.358</v>
@@ -64788,7 +65300,7 @@
         <v>27.047</v>
       </c>
       <c r="H26">
-        <v>29.245</v>
+        <v>30.05</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -64832,13 +65344,13 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D2">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="E2">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -64849,13 +65361,13 @@
         <v>170</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E3">
-        <v>17.65</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -64869,10 +65381,10 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4">
-        <v>14.67</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -64886,10 +65398,10 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E5">
-        <v>11.5</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -64903,10 +65415,10 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>8.16</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -64917,13 +65429,13 @@
         <v>179</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E7">
-        <v>21.92</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -64982,16 +65494,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>54.84</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -64999,16 +65511,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -65239,7 +65751,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -67237,6 +67749,89 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -67244,7 +67839,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -67269,7 +67864,7 @@
         <v>177</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -67291,7 +67886,7 @@
         <v>179</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -67324,7 +67919,7 @@
         <v>182</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -67467,7 +68062,7 @@
         <v>170</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -67489,7 +68084,7 @@
         <v>179</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -67511,7 +68106,7 @@
         <v>182</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -67541,10 +68136,10 @@
         <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -67552,10 +68147,10 @@
         <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -67563,10 +68158,10 @@
         <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -67574,7 +68169,7 @@
         <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -67585,7 +68180,7 @@
         <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -67593,13 +68188,13 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -67607,10 +68202,10 @@
         <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -67618,10 +68213,10 @@
         <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -67629,10 +68224,10 @@
         <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -67640,21 +68235,21 @@
         <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -67662,10 +68257,10 @@
         <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -67673,10 +68268,10 @@
         <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -67684,10 +68279,10 @@
         <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -67695,10 +68290,10 @@
         <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -67706,32 +68301,32 @@
         <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -67739,10 +68334,10 @@
         <v>180</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -67750,10 +68345,10 @@
         <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -67761,10 +68356,10 @@
         <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -67772,32 +68367,32 @@
         <v>180</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -67805,10 +68400,10 @@
         <v>181</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -67816,10 +68411,10 @@
         <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -67827,10 +68422,10 @@
         <v>181</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -67838,7 +68433,7 @@
         <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -67849,10 +68444,10 @@
         <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -67860,7 +68455,7 @@
         <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -67871,10 +68466,10 @@
         <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -67882,7 +68477,7 @@
         <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -67893,10 +68488,10 @@
         <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -67904,10 +68499,10 @@
         <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -67915,10 +68510,10 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -67926,32 +68521,32 @@
         <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -67959,10 +68554,10 @@
         <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -67970,10 +68565,10 @@
         <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -67981,10 +68576,10 @@
         <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -67992,10 +68587,10 @@
         <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -68003,10 +68598,10 @@
         <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -68014,10 +68609,10 @@
         <v>182</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -68025,7 +68620,7 @@
         <v>182</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -68036,10 +68631,10 @@
         <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -68047,10 +68642,10 @@
         <v>182</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -68058,10 +68653,10 @@
         <v>182</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -68069,10 +68664,10 @@
         <v>182</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -68080,10 +68675,10 @@
         <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -68091,10 +68686,10 @@
         <v>182</v>
       </c>
       <c r="B77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -68102,7 +68697,7 @@
         <v>182</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -68110,32 +68705,32 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -68146,10 +68741,10 @@
         <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -68157,10 +68752,10 @@
         <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -68168,7 +68763,7 @@
         <v>184</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -68179,10 +68774,10 @@
         <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -68190,10 +68785,10 @@
         <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -68201,7 +68796,7 @@
         <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -68212,10 +68807,10 @@
         <v>184</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -68223,7 +68818,7 @@
         <v>184</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -68234,7 +68829,7 @@
         <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -68242,10 +68837,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -68253,21 +68848,21 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -68278,10 +68873,10 @@
         <v>186</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -68289,7 +68884,7 @@
         <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -68300,32 +68895,32 @@
         <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -68333,10 +68928,10 @@
         <v>187</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -68344,10 +68939,10 @@
         <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -68355,10 +68950,10 @@
         <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -68366,10 +68961,10 @@
         <v>187</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -68377,32 +68972,32 @@
         <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" t="s">
         <v>188</v>
       </c>
-      <c r="B104" t="s">
-        <v>170</v>
-      </c>
       <c r="C104">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -68410,10 +69005,10 @@
         <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -68421,10 +69016,10 @@
         <v>188</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -68432,10 +69027,10 @@
         <v>188</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -68443,7 +69038,7 @@
         <v>188</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -68454,7 +69049,7 @@
         <v>188</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -68465,10 +69060,10 @@
         <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -68476,7 +69071,7 @@
         <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -68487,43 +69082,43 @@
         <v>188</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" t="s">
         <v>189</v>
       </c>
-      <c r="B114" t="s">
-        <v>170</v>
-      </c>
       <c r="C114">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -68531,10 +69126,10 @@
         <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -68542,10 +69137,10 @@
         <v>189</v>
       </c>
       <c r="B118" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -68553,10 +69148,10 @@
         <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -68564,10 +69159,10 @@
         <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -68575,10 +69170,10 @@
         <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -68586,43 +69181,43 @@
         <v>189</v>
       </c>
       <c r="B122" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -68630,7 +69225,7 @@
         <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -68641,10 +69236,10 @@
         <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -68652,40 +69247,40 @@
         <v>190</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C130">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" t="s">
         <v>191</v>
-      </c>
-      <c r="B131" t="s">
-        <v>187</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -68696,29 +69291,29 @@
         <v>191</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B133" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -68726,13 +69321,13 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -68740,10 +69335,10 @@
         <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -68751,10 +69346,10 @@
         <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -68762,7 +69357,7 @@
         <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -68773,29 +69368,29 @@
         <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -68803,10 +69398,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -68817,7 +69412,7 @@
         <v>193</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -68828,7 +69423,7 @@
         <v>193</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -68836,10 +69431,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -68847,21 +69442,21 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B147" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -68869,10 +69464,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -68880,32 +69475,32 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B149" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B150" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -68913,10 +69508,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B152" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -68924,21 +69519,21 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B153" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B154" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -68946,10 +69541,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -68957,10 +69552,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -68968,35 +69563,35 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B157" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C157">
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C158">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C159">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -69004,10 +69599,10 @@
         <v>200</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C160">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -69015,10 +69610,10 @@
         <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C161">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -69026,10 +69621,10 @@
         <v>200</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C162">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -69037,10 +69632,10 @@
         <v>200</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C163">
-        <v>118</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -69048,10 +69643,10 @@
         <v>200</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -69059,10 +69654,10 @@
         <v>200</v>
       </c>
       <c r="B165" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C165">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -69070,10 +69665,10 @@
         <v>200</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -69081,10 +69676,10 @@
         <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C167">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -69092,10 +69687,10 @@
         <v>200</v>
       </c>
       <c r="B168" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C168">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -69103,10 +69698,10 @@
         <v>200</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C169">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -69114,10 +69709,10 @@
         <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C170">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -69125,10 +69720,10 @@
         <v>200</v>
       </c>
       <c r="B171" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C171">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -69136,10 +69731,10 @@
         <v>200</v>
       </c>
       <c r="B172" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C172">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -69147,10 +69742,10 @@
         <v>200</v>
       </c>
       <c r="B173" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C173">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -69158,10 +69753,10 @@
         <v>200</v>
       </c>
       <c r="B174" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -69169,10 +69764,10 @@
         <v>200</v>
       </c>
       <c r="B175" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -69180,10 +69775,10 @@
         <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -69191,10 +69786,10 @@
         <v>200</v>
       </c>
       <c r="B177" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -69202,10 +69797,10 @@
         <v>200</v>
       </c>
       <c r="B178" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -69213,10 +69808,10 @@
         <v>200</v>
       </c>
       <c r="B179" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -69224,9 +69819,42 @@
         <v>200</v>
       </c>
       <c r="B180" t="s">
+        <v>196</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" t="s">
+        <v>197</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" t="s">
+        <v>198</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" t="s">
         <v>199</v>
       </c>
-      <c r="C180">
+      <c r="C183">
         <v>1</v>
       </c>
     </row>
@@ -69237,7 +69865,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -69268,13 +69896,13 @@
         <v>177</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -69302,13 +69930,13 @@
         <v>179</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>3.6</v>
+        <v>4.899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -69353,13 +69981,13 @@
         <v>182</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>24.14285714285714</v>
+        <v>28.03333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -69506,13 +70134,13 @@
         <v>177</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -69540,13 +70168,13 @@
         <v>182</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>14</v>
       </c>
       <c r="E18">
-        <v>13.06666666666667</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -69636,53 +70264,53 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
         <v>179</v>
       </c>
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
       <c r="C24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>10.08333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>182</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>4.166666666666667</v>
+        <v>10.08333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
         <v>182</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>4.923076923076923</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -69690,16 +70318,16 @@
         <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>4.923076923076923</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -69707,16 +70335,16 @@
         <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>1.285714285714286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -69724,16 +70352,16 @@
         <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>3.2</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -69741,100 +70369,117 @@
         <v>181</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>1.333333333333333</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
         <v>182</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>3.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s">
         <v>182</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
         <v>182</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>1.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>184</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>186</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>4</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>3.2</v>
       </c>
     </row>

--- a/Java/stats.xlsx
+++ b/Java/stats.xlsx
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1556,10 +1556,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1567,10 +1567,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1589,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1600,10 +1600,10 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1611,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1622,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1666,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1776,10 +1776,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1787,10 +1787,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1809,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1820,10 +1820,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1831,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1842,10 +1842,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1853,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1864,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1886,10 +1886,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -104021,7 +104021,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -104038,7 +104038,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -108017,10 +108017,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -108028,10 +108028,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -108039,10 +108039,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -108050,10 +108050,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -108061,10 +108061,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -108072,10 +108072,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -108083,10 +108083,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -108094,10 +108094,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -108105,10 +108105,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -108116,10 +108116,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -108127,10 +108127,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -108149,7 +108149,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -108160,10 +108160,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -108171,10 +108171,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -108182,7 +108182,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -108193,10 +108193,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -108204,10 +108204,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -108215,7 +108215,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -108226,10 +108226,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -108237,7 +108237,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -108248,10 +108248,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -108270,10 +108270,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -108281,10 +108281,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -108292,10 +108292,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -108303,10 +108303,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -108314,10 +108314,10 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -108325,10 +108325,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -108336,10 +108336,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -108347,10 +108347,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -108358,7 +108358,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -108369,10 +108369,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -108380,10 +108380,10 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -108391,7 +108391,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -108402,7 +108402,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -108413,7 +108413,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -108424,7 +108424,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -108435,10 +108435,10 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -108446,10 +108446,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -108457,10 +108457,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -108468,10 +108468,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -108479,10 +108479,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -108490,10 +108490,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -108523,10 +108523,10 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -108534,10 +108534,10 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -108567,7 +108567,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -108578,10 +108578,10 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -108589,7 +108589,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -108600,10 +108600,10 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -108611,10 +108611,10 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -108622,10 +108622,10 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -108633,10 +108633,10 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -108644,10 +108644,10 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -108655,10 +108655,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -108677,10 +108677,10 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -108688,7 +108688,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -108699,10 +108699,10 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -108710,10 +108710,10 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -108721,10 +108721,10 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -108732,10 +108732,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -108743,10 +108743,10 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -108754,7 +108754,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -108765,10 +108765,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -108776,10 +108776,10 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -108787,10 +108787,10 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -108798,10 +108798,10 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -108809,10 +108809,10 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
         <v>7</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -108820,10 +108820,10 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -108831,10 +108831,10 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -108853,10 +108853,10 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -108886,10 +108886,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -108908,10 +108908,10 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -108919,10 +108919,10 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -108930,10 +108930,10 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -108941,10 +108941,10 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -108952,7 +108952,7 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -108963,10 +108963,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -108974,7 +108974,7 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -108985,10 +108985,10 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -108996,10 +108996,10 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -109007,10 +109007,10 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -109018,7 +109018,7 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -109029,10 +109029,10 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -109040,7 +109040,7 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -109051,7 +109051,7 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -109062,10 +109062,10 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -109073,7 +109073,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -109084,7 +109084,7 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -109106,10 +109106,10 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -109117,7 +109117,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -109139,10 +109139,10 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
         <v>3</v>
-      </c>
-      <c r="C106">
-        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -109150,7 +109150,7 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -109161,7 +109161,7 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -109172,10 +109172,10 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -109183,10 +109183,10 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -109194,7 +109194,7 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -109205,7 +109205,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -109216,7 +109216,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -109249,7 +109249,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -109271,7 +109271,7 @@
         <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -109293,7 +109293,7 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>21</v>
@@ -109315,10 +109315,10 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C122">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -109326,10 +109326,10 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -109337,10 +109337,10 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -109348,10 +109348,10 @@
         <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C125">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -109359,10 +109359,10 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -109370,10 +109370,10 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -109381,10 +109381,10 @@
         <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -109392,10 +109392,10 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -109403,7 +109403,7 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -109414,10 +109414,10 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -109436,10 +109436,10 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -109447,10 +109447,10 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -109458,7 +109458,7 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -109469,7 +109469,7 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -109480,10 +109480,10 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -109502,7 +109502,7 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -109513,10 +109513,10 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -109524,7 +109524,7 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -109535,10 +109535,10 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -109546,7 +109546,7 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -109557,10 +109557,10 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -109568,10 +109568,10 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -109579,7 +109579,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -109590,7 +109590,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -109601,7 +109601,7 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -109612,10 +109612,10 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -109623,7 +109623,7 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -109634,10 +109634,10 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -109645,10 +109645,10 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -109656,10 +109656,10 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C153">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -109667,10 +109667,10 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154">
         <v>3</v>
-      </c>
-      <c r="C154">
-        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -109678,7 +109678,7 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -109689,10 +109689,10 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -109700,10 +109700,10 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -109722,10 +109722,10 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -109733,10 +109733,10 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -109744,7 +109744,7 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -109755,7 +109755,7 @@
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -109766,10 +109766,10 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163">
         <v>8</v>
-      </c>
-      <c r="C163">
-        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -109777,10 +109777,10 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -109788,10 +109788,10 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -109799,10 +109799,10 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -109810,7 +109810,7 @@
         <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C167">
         <v>3</v>
@@ -109821,10 +109821,10 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -109832,10 +109832,10 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -109843,7 +109843,7 @@
         <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -109854,10 +109854,10 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -109865,10 +109865,10 @@
         <v>17</v>
       </c>
       <c r="B172" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C172">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -109876,10 +109876,10 @@
         <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -109909,10 +109909,10 @@
         <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -109920,10 +109920,10 @@
         <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -109942,10 +109942,10 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -109953,7 +109953,7 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -109964,7 +109964,7 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C181">
         <v>3</v>
@@ -109975,10 +109975,10 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -109986,7 +109986,7 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -109997,7 +109997,7 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -110030,7 +110030,7 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -110052,7 +110052,7 @@
         <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -110074,10 +110074,10 @@
         <v>22</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -110085,10 +110085,10 @@
         <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -110107,10 +110107,10 @@
         <v>23</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -110118,10 +110118,10 @@
         <v>23</v>
       </c>
       <c r="B195" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -110129,10 +110129,10 @@
         <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C196">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -110140,10 +110140,10 @@
         <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -110151,10 +110151,10 @@
         <v>24</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -110162,10 +110162,10 @@
         <v>24</v>
       </c>
       <c r="B199" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -110173,7 +110173,7 @@
         <v>24</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -110184,7 +110184,7 @@
         <v>25</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -110206,7 +110206,7 @@
         <v>25</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -110217,7 +110217,7 @@
         <v>26</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -110228,7 +110228,7 @@
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -110239,10 +110239,10 @@
         <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C206">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -110250,7 +110250,7 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -110261,10 +110261,10 @@
         <v>27</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C208">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -110272,10 +110272,10 @@
         <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -110283,10 +110283,10 @@
         <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -110294,10 +110294,10 @@
         <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -110305,10 +110305,10 @@
         <v>27</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -110338,10 +110338,10 @@
         <v>28</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -110360,10 +110360,10 @@
         <v>28</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -110382,10 +110382,10 @@
         <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -110393,10 +110393,10 @@
         <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -110404,7 +110404,7 @@
         <v>30</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -110415,7 +110415,7 @@
         <v>30</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -110448,10 +110448,10 @@
         <v>32</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -110459,10 +110459,10 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -110668,10 +110668,10 @@
         <v>2</v>
       </c>
       <c r="B245" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C245">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -110679,10 +110679,10 @@
         <v>2</v>
       </c>
       <c r="B246" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C246">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -110690,10 +110690,10 @@
         <v>2</v>
       </c>
       <c r="B247" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C247">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -110701,10 +110701,10 @@
         <v>2</v>
       </c>
       <c r="B248" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -110712,10 +110712,10 @@
         <v>2</v>
       </c>
       <c r="B249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C249">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -110723,10 +110723,10 @@
         <v>2</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C250">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -110734,10 +110734,10 @@
         <v>2</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C251">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -110745,10 +110745,10 @@
         <v>2</v>
       </c>
       <c r="B252" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C252">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -110756,10 +110756,10 @@
         <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C253">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -110767,10 +110767,10 @@
         <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C254">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -110778,10 +110778,10 @@
         <v>2</v>
       </c>
       <c r="B255" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C255">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -110789,10 +110789,10 @@
         <v>2</v>
       </c>
       <c r="B256" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -110800,10 +110800,10 @@
         <v>2</v>
       </c>
       <c r="B257" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -110811,7 +110811,7 @@
         <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C258">
         <v>5</v>
@@ -110822,10 +110822,10 @@
         <v>2</v>
       </c>
       <c r="B259" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C259">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -110833,10 +110833,10 @@
         <v>2</v>
       </c>
       <c r="B260" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -110844,7 +110844,7 @@
         <v>2</v>
       </c>
       <c r="B261" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C261">
         <v>4</v>
@@ -110974,16 +110974,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -110991,16 +110991,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>11.63636363636364</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -111008,16 +111008,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>31.03030303030303</v>
+        <v>11.63636363636364</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -111025,16 +111025,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>31.03030303030303</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -111042,16 +111042,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>15.20689655172414</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -111059,16 +111059,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>5.818181818181818</v>
+        <v>15.20689655172414</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -111076,16 +111076,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
       <c r="E10">
-        <v>6.4</v>
+        <v>5.818181818181818</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -111093,16 +111093,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -111110,16 +111110,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -111127,16 +111127,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>2.285714285714286</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -111144,16 +111144,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2.285714285714286</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -111161,16 +111161,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -111178,16 +111178,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>1.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -111195,16 +111195,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
         <v>4</v>
-      </c>
-      <c r="E17">
-        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -111212,16 +111212,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -111229,101 +111229,101 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
       <c r="E19">
-        <v>1.8</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
       <c r="C20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>12.25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>11.26666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>11.26666666666667</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>4.5</v>
+        <v>21.04347826086957</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
       <c r="C24">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>21.04347826086957</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -111450,16 +111450,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E32">
-        <v>1.285714285714286</v>
+        <v>5.785714285714286</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -111467,16 +111467,16 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
         <v>19</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
       <c r="D33">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>1.333333333333333</v>
+        <v>16.40909090909091</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -111484,16 +111484,16 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>16.40909090909091</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -111518,16 +111518,16 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>5.785714285714286</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -111617,36 +111617,36 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E42">
-        <v>29.12121212121212</v>
+        <v>8.450000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>8.450000000000001</v>
+        <v>6.666666666666666</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -111668,36 +111668,36 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E45">
-        <v>6.666666666666666</v>
+        <v>29.12121212121212</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>1.333333333333333</v>
+        <v>7.111111111111111</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -111719,19 +111719,19 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>7.111111111111111</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
   </sheetData>
